--- a/doc/doc_koncowa/testy/wyniki_testow.xlsx
+++ b/doc/doc_koncowa/testy/wyniki_testow.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UCB1" sheetId="1" r:id="rId1"/>
     <sheet name="UCBV" sheetId="2" r:id="rId2"/>
     <sheet name="UCBM" sheetId="3" r:id="rId3"/>
+    <sheet name="ALL" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ALL!$A$1:$B$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UCB1'!$L$1:$M$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UCBM!$L$1:$M$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UCBV!$L$1:$M$21</definedName>
@@ -27,9 +29,9 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
-    <pivotCache cacheId="5" r:id="rId5"/>
-    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -92,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="761">
   <si>
     <t xml:space="preserve"> GREEDY</t>
   </si>
@@ -10549,7 +10551,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -10668,7 +10670,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -10787,7 +10789,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -11166,8 +11168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G301"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18679,8 +18681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G301"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26195,8 +26197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G226"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31847,4 +31849,484 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.55238095238095242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.52952380952380962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5">
+        <v>0.51047619047619053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B6">
+        <v>0.48457142857142854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7">
+        <v>0.47847619047619044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>0.46247619047619054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B9">
+        <v>0.45790476190476198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.43885714285714289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11">
+        <v>0.42742857142857138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.4259047619047619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>621</v>
+      </c>
+      <c r="B13">
+        <v>0.42514285714285727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>620</v>
+      </c>
+      <c r="B14">
+        <v>0.41523809523809535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15">
+        <v>0.41447619047619039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>622</v>
+      </c>
+      <c r="B16">
+        <v>0.40000000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>716</v>
+      </c>
+      <c r="B17">
+        <v>0.39466666666666683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18">
+        <v>0.38019047619047636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19">
+        <v>0.37638095238095237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20">
+        <v>0.36647619047619051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>619</v>
+      </c>
+      <c r="B21">
+        <v>0.35733333333333339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22">
+        <v>0.3337142857142858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23">
+        <v>0.32000000000000017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24">
+        <v>0.31238095238095237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>686</v>
+      </c>
+      <c r="B25">
+        <v>0.28952380952380957</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>744</v>
+      </c>
+      <c r="B26">
+        <v>0.2514285714285715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>0.23695238095238091</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>730</v>
+      </c>
+      <c r="B28">
+        <v>0.23542857142857138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>0.20571428571428579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>0.20342857142857154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>0.15314285714285722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>367</v>
+      </c>
+      <c r="B32">
+        <v>8.3809523809523834E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>-5.3333333333332195E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>392</v>
+      </c>
+      <c r="B34">
+        <v>-6.8571428571427952E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>-9.9047619047618017E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>470</v>
+      </c>
+      <c r="B36">
+        <v>-9.0666666666666729E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>427</v>
+      </c>
+      <c r="B37">
+        <v>-0.27276190476190471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>-0.27885714285714269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>526</v>
+      </c>
+      <c r="B39">
+        <v>-0.28952380952380946</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>539</v>
+      </c>
+      <c r="B40">
+        <v>-0.29714285714285715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>442</v>
+      </c>
+      <c r="B41">
+        <v>-0.34971428571428576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>456</v>
+      </c>
+      <c r="B42">
+        <v>-0.36647619047619057</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>-0.44800000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>599</v>
+      </c>
+      <c r="B44">
+        <v>-0.45257142857142868</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>616</v>
+      </c>
+      <c r="B45">
+        <v>-0.47233015873015805</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>550</v>
+      </c>
+      <c r="B46">
+        <v>-0.50895238095238093</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>377</v>
+      </c>
+      <c r="B47">
+        <v>-0.5135238095238096</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>587</v>
+      </c>
+      <c r="B48">
+        <v>-0.52266666666666672</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>513</v>
+      </c>
+      <c r="B49">
+        <v>-0.55695238095238098</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>-0.56304761904761913</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>-0.57523809523809544</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>485</v>
+      </c>
+      <c r="B52">
+        <v>-0.58895238095238089</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>559</v>
+      </c>
+      <c r="B53">
+        <v>-0.64761904761904743</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>569</v>
+      </c>
+      <c r="B54">
+        <v>-0.69638095238095232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>-0.70247619047619037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>578</v>
+      </c>
+      <c r="B56">
+        <v>-0.71466666666666678</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>499</v>
+      </c>
+      <c r="B57">
+        <v>-0.72990476190476217</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B57">
+    <sortState ref="A2:B57">
+      <sortCondition descending="1" ref="B1:B57"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/doc_koncowa/testy/wyniki_testow.xlsx
+++ b/doc/doc_koncowa/testy/wyniki_testow.xlsx
@@ -2,43 +2,72 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\doc\doc_koncowa\testy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UCB1" sheetId="1" r:id="rId1"/>
     <sheet name="UCBV" sheetId="2" r:id="rId2"/>
     <sheet name="UCBM" sheetId="3" r:id="rId3"/>
     <sheet name="ALL" sheetId="4" r:id="rId4"/>
+    <sheet name="ITERACJE" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ALL!$A$1:$B$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UCB1'!$L$1:$M$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UCBM!$L$1:$M$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UCBV!$L$1:$M$21</definedName>
+    <definedName name="iterations_ucb1" localSheetId="4">ITERACJE!$A$2:$E$111</definedName>
+    <definedName name="iterations_ucbm" localSheetId="4">ITERACJE!$A$112:$E$221</definedName>
     <definedName name="params_ucb1" localSheetId="0">'UCB1'!$A$227:$G$301</definedName>
     <definedName name="params_ucbm" localSheetId="2">UCBM!$A$2:$G$226</definedName>
+    <definedName name="params_ucbv" localSheetId="4">ITERACJE!$A$222:$H$296</definedName>
     <definedName name="params_ucbv" localSheetId="1">UCBV!$A$2:$F$226</definedName>
     <definedName name="params_ucbv_1" localSheetId="1">UCBV!$A$227:$H$301</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="5" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="params_ucb1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" name="iterations_ucb1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\src\Connect4UCT\ConnectFourUCTTester\bin\Release\iterations_ucb1.csv" thousands=" " comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField type="text"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="iterations_ucbm" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\src\Connect4UCT\ConnectFourUCTTester\bin\Release\iterations_ucbm.csv" thousands=" " comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="params_ucb1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\src\Connect4UCT\ConnectFourUCTTester\bin\Release\params_ucb1.csv" thousands=" " comma="1">
       <textFields count="7">
         <textField/>
@@ -51,7 +80,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="params_ucbm" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" name="params_ucbm" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\doc\doc_koncowa\testy\params_ucbm.csv" thousands=" " tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -64,7 +93,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="params_ucbv" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" name="params_ucbv" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\doc\doc_koncowa\testy\params_ucbv.csv" thousands=" " tab="0" comma="1">
       <textFields count="6">
         <textField/>
@@ -76,7 +105,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="params_ucbv1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" name="params_ucbv1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\src\Connect4UCT\ConnectFourUCTTester\bin\Release\params_ucbv.csv" thousands=" " comma="1">
       <textFields count="8">
         <textField/>
@@ -90,11 +119,25 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="7" name="params_ucbv2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\src\Connect4UCT\ConnectFourUCTTester\bin\Release\params_ucbv.csv" thousands=" " comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="800">
   <si>
     <t xml:space="preserve"> GREEDY</t>
   </si>
@@ -2377,6 +2420,123 @@
   </si>
   <si>
     <t>3233322022344144</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCB1 (2) (100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCB1 (2) (500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCB1 (2) (1000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCB1 (2) (2500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCB1 (2) (5000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCB1 (2) (7500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCB1 (2) (10000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCB1 (2) (12500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCB1 (2) (15000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCB1 (2) (17500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCB1 (2) (20000)</t>
+  </si>
+  <si>
+    <t>SEED</t>
+  </si>
+  <si>
+    <t>PL1</t>
+  </si>
+  <si>
+    <t>PL2</t>
+  </si>
+  <si>
+    <t>REWARD</t>
+  </si>
+  <si>
+    <t>UCT REWARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBM (11) (1) (100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBM (11) (1) (500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBM (11) (1) (1000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBM (11) (1) (2500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBM (11) (1) (5000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBM (11) (1) (7500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBM (11) (1) (10000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBM (11) (1) (12500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBM (11) (1) (15000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBM (11) (1) (17500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBM (11) (1) (20000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBV (1.4) (0.5) (100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBV (1.4) (0.5) (500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBV (1.4) (0.5) (1000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBV (1.4) (0.5) (2500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBV (1.4) (0.5) (5000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBV (1.4) (0.5) (7500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBV (1.4) (0.5) (10000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBV (1.4) (0.5) (12500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBV (1.4) (0.5) (15000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBV (1.4) (0.5) (17500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBV (1.4) (0.5) (20000)</t>
+  </si>
+  <si>
+    <t>Average of UCT REWARD</t>
   </si>
 </sst>
 </file>
@@ -3110,6 +3270,70 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Patryk" refreshedDate="43990.892161805554" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="330">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E331" sheet="ITERACJE"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="SEED" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11221" maxValue="93715"/>
+    </cacheField>
+    <cacheField name="PL1" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="PL2" numFmtId="0">
+      <sharedItems count="33">
+        <s v=" UCB1 (2) (100)"/>
+        <s v=" UCB1 (2) (500)"/>
+        <s v=" UCB1 (2) (1000)"/>
+        <s v=" UCB1 (2) (2500)"/>
+        <s v=" UCB1 (2) (5000)"/>
+        <s v=" UCB1 (2) (7500)"/>
+        <s v=" UCB1 (2) (10000)"/>
+        <s v=" UCB1 (2) (12500)"/>
+        <s v=" UCB1 (2) (15000)"/>
+        <s v=" UCB1 (2) (17500)"/>
+        <s v=" UCB1 (2) (20000)"/>
+        <s v=" UCBM (11) (1) (100)"/>
+        <s v=" UCBM (11) (1) (500)"/>
+        <s v=" UCBM (11) (1) (1000)"/>
+        <s v=" UCBM (11) (1) (2500)"/>
+        <s v=" UCBM (11) (1) (5000)"/>
+        <s v=" UCBM (11) (1) (7500)"/>
+        <s v=" UCBM (11) (1) (10000)"/>
+        <s v=" UCBM (11) (1) (12500)"/>
+        <s v=" UCBM (11) (1) (15000)"/>
+        <s v=" UCBM (11) (1) (17500)"/>
+        <s v=" UCBM (11) (1) (20000)"/>
+        <s v=" UCBV (1.4) (0.5) (100)"/>
+        <s v=" UCBV (1.4) (0.5) (500)"/>
+        <s v=" UCBV (1.4) (0.5) (1000)"/>
+        <s v=" UCBV (1.4) (0.5) (2500)"/>
+        <s v=" UCBV (1.4) (0.5) (5000)"/>
+        <s v=" UCBV (1.4) (0.5) (7500)"/>
+        <s v=" UCBV (1.4) (0.5) (10000)"/>
+        <s v=" UCBV (1.4) (0.5) (12500)"/>
+        <s v=" UCBV (1.4) (0.5) (15000)"/>
+        <s v=" UCBV (1.4) (0.5) (17500)"/>
+        <s v=" UCBV (1.4) (0.5) (20000)"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="REWARD" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.8" maxValue="0.8"/>
+    </cacheField>
+    <cacheField name="UCT REWARD" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.8" maxValue="0.8"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="225">
   <r>
@@ -10546,6 +10770,2321 @@
     <s v=" 34333441463644366115115655552222"/>
     <n v="-0.28571428571428598"/>
     <n v="0.28571428571428598"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="330">
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="0"/>
+    <n v="0.434285714285714"/>
+    <n v="-0.434285714285714"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="0"/>
+    <n v="0.38857142857142901"/>
+    <n v="-0.38857142857142901"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="0"/>
+    <n v="0.34285714285714303"/>
+    <n v="-0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="0"/>
+    <n v="0.52571428571428602"/>
+    <n v="-0.52571428571428602"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="0"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="0"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="0"/>
+    <n v="0.754285714285714"/>
+    <n v="-0.754285714285714"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="0"/>
+    <n v="0.754285714285714"/>
+    <n v="-0.754285714285714"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="0"/>
+    <n v="0.48"/>
+    <n v="-0.48"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="0"/>
+    <n v="0.20571428571428599"/>
+    <n v="-0.20571428571428599"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="1"/>
+    <n v="0.434285714285714"/>
+    <n v="-0.434285714285714"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="1"/>
+    <n v="0.61714285714285699"/>
+    <n v="-0.61714285714285699"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="1"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="1"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="1"/>
+    <n v="0.52571428571428602"/>
+    <n v="-0.52571428571428602"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="1"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="1"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="1"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="1"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="2"/>
+    <n v="-0.34285714285714303"/>
+    <n v="0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="2"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="2"/>
+    <n v="0.38857142857142901"/>
+    <n v="-0.38857142857142901"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="2"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="2"/>
+    <n v="0.114285714285714"/>
+    <n v="-0.114285714285714"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="2"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="2"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="2"/>
+    <n v="0.34285714285714303"/>
+    <n v="-0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="2"/>
+    <n v="-0.34285714285714303"/>
+    <n v="0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="3"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="3"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="3"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="3"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="3"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="3"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="3"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="3"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="3"/>
+    <n v="-0.28571428571428598"/>
+    <n v="0.28571428571428598"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="3"/>
+    <n v="0.251428571428571"/>
+    <n v="-0.251428571428571"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="4"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="4"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="4"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="4"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="4"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="4"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="4"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="4"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="4"/>
+    <n v="-0.74285714285714299"/>
+    <n v="0.74285714285714299"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="4"/>
+    <n v="0.29714285714285699"/>
+    <n v="-0.29714285714285699"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="5"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="5"/>
+    <n v="0.48"/>
+    <n v="-0.48"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="5"/>
+    <n v="-0.34285714285714303"/>
+    <n v="0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="5"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="5"/>
+    <n v="0.29714285714285699"/>
+    <n v="-0.29714285714285699"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="5"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="5"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="5"/>
+    <n v="-0.4"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="5"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="5"/>
+    <n v="-0.74285714285714299"/>
+    <n v="0.74285714285714299"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="6"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="6"/>
+    <n v="-0.34285714285714303"/>
+    <n v="0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="6"/>
+    <n v="0.251428571428571"/>
+    <n v="-0.251428571428571"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="6"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="6"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="6"/>
+    <n v="-0.22857142857142901"/>
+    <n v="0.22857142857142901"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="6"/>
+    <n v="-0.34285714285714303"/>
+    <n v="0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="6"/>
+    <n v="-0.8"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="6"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="6"/>
+    <n v="0.38857142857142901"/>
+    <n v="-0.38857142857142901"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="7"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="7"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="7"/>
+    <n v="-0.74285714285714299"/>
+    <n v="0.74285714285714299"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="7"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="7"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="7"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="7"/>
+    <n v="-0.34285714285714303"/>
+    <n v="0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="7"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="7"/>
+    <n v="-0.34285714285714303"/>
+    <n v="0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="7"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="8"/>
+    <n v="-0.74285714285714299"/>
+    <n v="0.74285714285714299"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="8"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="8"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="8"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="8"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="8"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="8"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="8"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="8"/>
+    <n v="-0.34285714285714303"/>
+    <n v="0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="8"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="9"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="9"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="9"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="9"/>
+    <n v="0.16"/>
+    <n v="-0.16"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="9"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="9"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="9"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="9"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="9"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="9"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="10"/>
+    <n v="-0.74285714285714299"/>
+    <n v="0.74285714285714299"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="10"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="10"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="10"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="10"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="10"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="10"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="10"/>
+    <n v="-0.4"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="10"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="11"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="11"/>
+    <n v="0.434285714285714"/>
+    <n v="-0.434285714285714"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="11"/>
+    <n v="0.754285714285714"/>
+    <n v="-0.754285714285714"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="11"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="11"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="11"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="11"/>
+    <n v="0.48"/>
+    <n v="-0.48"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="11"/>
+    <n v="0.52571428571428602"/>
+    <n v="-0.52571428571428602"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="11"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="11"/>
+    <n v="0.48"/>
+    <n v="-0.48"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="12"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="12"/>
+    <n v="0.66285714285714303"/>
+    <n v="-0.66285714285714303"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="12"/>
+    <n v="0.34285714285714303"/>
+    <n v="-0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="12"/>
+    <n v="0.20571428571428599"/>
+    <n v="-0.20571428571428599"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="12"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="12"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="12"/>
+    <n v="0.57142857142857195"/>
+    <n v="-0.57142857142857195"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="12"/>
+    <n v="-0.74285714285714299"/>
+    <n v="0.74285714285714299"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="12"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="12"/>
+    <n v="0.38857142857142901"/>
+    <n v="-0.38857142857142901"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="13"/>
+    <n v="0.34285714285714303"/>
+    <n v="-0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="13"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="13"/>
+    <n v="0.29714285714285699"/>
+    <n v="-0.29714285714285699"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="13"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="13"/>
+    <n v="-0.8"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="13"/>
+    <n v="0.38857142857142901"/>
+    <n v="-0.38857142857142901"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="13"/>
+    <n v="0.48"/>
+    <n v="-0.48"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="13"/>
+    <n v="0.754285714285714"/>
+    <n v="-0.754285714285714"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="13"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="13"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="14"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="14"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="14"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="14"/>
+    <n v="-0.28571428571428598"/>
+    <n v="0.28571428571428598"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="14"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="14"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="14"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="14"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="14"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="14"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="15"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="15"/>
+    <n v="0.57142857142857195"/>
+    <n v="-0.57142857142857195"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="15"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="15"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="15"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="15"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="15"/>
+    <n v="-0.4"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="15"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="15"/>
+    <n v="0.38857142857142901"/>
+    <n v="-0.38857142857142901"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="15"/>
+    <n v="0.251428571428571"/>
+    <n v="-0.251428571428571"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="16"/>
+    <n v="0.57142857142857195"/>
+    <n v="-0.57142857142857195"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="16"/>
+    <n v="0.52571428571428602"/>
+    <n v="-0.52571428571428602"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="16"/>
+    <n v="0.29714285714285699"/>
+    <n v="-0.29714285714285699"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="16"/>
+    <n v="0.48"/>
+    <n v="-0.48"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="16"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="16"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="16"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="16"/>
+    <n v="0.29714285714285699"/>
+    <n v="-0.29714285714285699"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="16"/>
+    <n v="0.434285714285714"/>
+    <n v="-0.434285714285714"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="16"/>
+    <n v="0.29714285714285699"/>
+    <n v="-0.29714285714285699"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="17"/>
+    <n v="-0.34285714285714303"/>
+    <n v="0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="17"/>
+    <n v="0.48"/>
+    <n v="-0.48"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="17"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="17"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="17"/>
+    <n v="0.48"/>
+    <n v="-0.48"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="17"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="17"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="17"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="17"/>
+    <n v="0.434285714285714"/>
+    <n v="-0.434285714285714"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="17"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="18"/>
+    <n v="0.34285714285714303"/>
+    <n v="-0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="18"/>
+    <n v="-0.4"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="18"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="18"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="18"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="18"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="18"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="18"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="18"/>
+    <n v="0.34285714285714303"/>
+    <n v="-0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="18"/>
+    <n v="0.29714285714285699"/>
+    <n v="-0.29714285714285699"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="19"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="19"/>
+    <n v="0.38857142857142901"/>
+    <n v="-0.38857142857142901"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="19"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="19"/>
+    <n v="-0.4"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="19"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="19"/>
+    <n v="-0.4"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="19"/>
+    <n v="-0.28571428571428598"/>
+    <n v="0.28571428571428598"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="19"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="19"/>
+    <n v="0.57142857142857195"/>
+    <n v="-0.57142857142857195"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="19"/>
+    <n v="-0.34285714285714303"/>
+    <n v="0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="20"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="20"/>
+    <n v="0.251428571428571"/>
+    <n v="-0.251428571428571"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="20"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="20"/>
+    <n v="-0.4"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="20"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="20"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="20"/>
+    <n v="-0.34285714285714303"/>
+    <n v="0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="20"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="20"/>
+    <n v="0.57142857142857195"/>
+    <n v="-0.57142857142857195"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="20"/>
+    <n v="0.48"/>
+    <n v="-0.48"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="21"/>
+    <n v="-0.34285714285714303"/>
+    <n v="0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="21"/>
+    <n v="0.52571428571428602"/>
+    <n v="-0.52571428571428602"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="21"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="21"/>
+    <n v="0.29714285714285699"/>
+    <n v="-0.29714285714285699"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="21"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="21"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="21"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="21"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="21"/>
+    <n v="0.57142857142857195"/>
+    <n v="-0.57142857142857195"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="21"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="22"/>
+    <n v="0.434285714285714"/>
+    <n v="-0.434285714285714"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="22"/>
+    <n v="-0.4"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="22"/>
+    <n v="0.52571428571428602"/>
+    <n v="-0.52571428571428602"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="22"/>
+    <n v="0.434285714285714"/>
+    <n v="-0.434285714285714"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="22"/>
+    <n v="0.434285714285714"/>
+    <n v="-0.434285714285714"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="22"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="22"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="22"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="22"/>
+    <n v="-0.28571428571428598"/>
+    <n v="0.28571428571428598"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="22"/>
+    <n v="0.48"/>
+    <n v="-0.48"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="23"/>
+    <n v="0.48"/>
+    <n v="-0.48"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="23"/>
+    <n v="-0.8"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="23"/>
+    <n v="0.29714285714285699"/>
+    <n v="-0.29714285714285699"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="23"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="23"/>
+    <n v="0.70857142857142896"/>
+    <n v="-0.70857142857142896"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="23"/>
+    <n v="0.38857142857142901"/>
+    <n v="-0.38857142857142901"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="23"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="23"/>
+    <n v="0.34285714285714303"/>
+    <n v="-0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="23"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="23"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="24"/>
+    <n v="0.20571428571428599"/>
+    <n v="-0.20571428571428599"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="24"/>
+    <n v="0.34285714285714303"/>
+    <n v="-0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="24"/>
+    <n v="-0.74285714285714299"/>
+    <n v="0.74285714285714299"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="24"/>
+    <n v="-0.34285714285714303"/>
+    <n v="0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="24"/>
+    <n v="0.29714285714285699"/>
+    <n v="-0.29714285714285699"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="24"/>
+    <n v="0.57142857142857195"/>
+    <n v="-0.57142857142857195"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="24"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="24"/>
+    <n v="-0.4"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="24"/>
+    <n v="0.34285714285714303"/>
+    <n v="-0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="24"/>
+    <n v="0.29714285714285699"/>
+    <n v="-0.29714285714285699"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="25"/>
+    <n v="-0.22857142857142901"/>
+    <n v="0.22857142857142901"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="25"/>
+    <n v="2.2857142857142899E-2"/>
+    <n v="-2.2857142857142899E-2"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="25"/>
+    <n v="0.251428571428571"/>
+    <n v="-0.251428571428571"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="25"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="25"/>
+    <n v="-0.8"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="25"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="25"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="25"/>
+    <n v="0.251428571428571"/>
+    <n v="-0.251428571428571"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="25"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="25"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="26"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="26"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="26"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="26"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="26"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="26"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="26"/>
+    <n v="0.8"/>
+    <n v="-0.8"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="26"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="26"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="26"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="27"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="27"/>
+    <n v="0.38857142857142901"/>
+    <n v="-0.38857142857142901"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="27"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="27"/>
+    <n v="-0.22857142857142901"/>
+    <n v="0.22857142857142901"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="27"/>
+    <n v="0.20571428571428599"/>
+    <n v="-0.20571428571428599"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="27"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="27"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="27"/>
+    <n v="0.434285714285714"/>
+    <n v="-0.434285714285714"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="27"/>
+    <n v="0.114285714285714"/>
+    <n v="-0.114285714285714"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="27"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="28"/>
+    <n v="0.29714285714285699"/>
+    <n v="-0.29714285714285699"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="28"/>
+    <n v="0.251428571428571"/>
+    <n v="-0.251428571428571"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="28"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="28"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="28"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="28"/>
+    <n v="-0.8"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="28"/>
+    <n v="-0.74285714285714299"/>
+    <n v="0.74285714285714299"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="28"/>
+    <n v="0.20571428571428599"/>
+    <n v="-0.20571428571428599"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="28"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="28"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="29"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="29"/>
+    <n v="-0.34285714285714303"/>
+    <n v="0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="29"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="29"/>
+    <n v="-0.4"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="29"/>
+    <n v="-0.22857142857142901"/>
+    <n v="0.22857142857142901"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="29"/>
+    <n v="0.38857142857142901"/>
+    <n v="-0.38857142857142901"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="29"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="29"/>
+    <n v="0.434285714285714"/>
+    <n v="-0.434285714285714"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="29"/>
+    <n v="-0.4"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="29"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="30"/>
+    <n v="-0.74285714285714299"/>
+    <n v="0.74285714285714299"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="30"/>
+    <n v="-0.17142857142857101"/>
+    <n v="0.17142857142857101"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="30"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="30"/>
+    <n v="-0.4"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="30"/>
+    <n v="-0.74285714285714299"/>
+    <n v="0.74285714285714299"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="30"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="30"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="30"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="30"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="30"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="31"/>
+    <n v="0.16"/>
+    <n v="-0.16"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="31"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="31"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="31"/>
+    <n v="-0.74285714285714299"/>
+    <n v="0.74285714285714299"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="31"/>
+    <n v="-0.17142857142857101"/>
+    <n v="0.17142857142857101"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="31"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="31"/>
+    <n v="-0.74285714285714299"/>
+    <n v="0.74285714285714299"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="31"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="31"/>
+    <n v="0.34285714285714303"/>
+    <n v="-0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="31"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="93715"/>
+    <s v=" GREEDY"/>
+    <x v="32"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="62735"/>
+    <s v=" GREEDY"/>
+    <x v="32"/>
+    <n v="0.434285714285714"/>
+    <n v="-0.434285714285714"/>
+  </r>
+  <r>
+    <n v="42394"/>
+    <s v=" GREEDY"/>
+    <x v="32"/>
+    <n v="-0.51428571428571401"/>
+    <n v="0.51428571428571401"/>
+  </r>
+  <r>
+    <n v="12312"/>
+    <s v=" GREEDY"/>
+    <x v="32"/>
+    <n v="-0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
+  </r>
+  <r>
+    <n v="50452"/>
+    <s v=" GREEDY"/>
+    <x v="32"/>
+    <n v="0.34285714285714303"/>
+    <n v="-0.34285714285714303"/>
+  </r>
+  <r>
+    <n v="22323"/>
+    <s v=" GREEDY"/>
+    <x v="32"/>
+    <n v="-0.68571428571428605"/>
+    <n v="0.68571428571428605"/>
+  </r>
+  <r>
+    <n v="39123"/>
+    <s v=" GREEDY"/>
+    <x v="32"/>
+    <n v="-0.22857142857142901"/>
+    <n v="0.22857142857142901"/>
+  </r>
+  <r>
+    <n v="75675"/>
+    <s v=" GREEDY"/>
+    <x v="32"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="12392"/>
+    <s v=" GREEDY"/>
+    <x v="32"/>
+    <n v="-0.628571428571429"/>
+    <n v="0.628571428571429"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <s v=" GREEDY"/>
+    <x v="32"/>
+    <n v="-0.45714285714285702"/>
+    <n v="0.45714285714285702"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -10887,20 +13426,201 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G4:H38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="34">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="34">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of UCT REWARD" fld="4" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucb1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucb1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbv_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbv_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbv" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbv" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbm" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbm" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbv" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="iterations_ucbm" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="iterations_ucb1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31855,7 +34575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
@@ -32329,4 +35049,6402 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q331"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4:Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>93715</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D2">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="E2" s="4">
+        <f>-D2</f>
+        <v>-0.434285714285714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>62735</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D3">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E66" si="0">-D3</f>
+        <v>-0.38857142857142901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>42394</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>761</v>
+      </c>
+      <c r="D4">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="H4" t="s">
+        <v>799</v>
+      </c>
+      <c r="J4" t="s">
+        <v>761</v>
+      </c>
+      <c r="K4">
+        <v>-0.40571428571428569</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="N4" s="4">
+        <v>-0.38171428571428601</v>
+      </c>
+      <c r="P4" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q4">
+        <v>-0.1337142857142857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12312</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>761</v>
+      </c>
+      <c r="D5">
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.52571428571428602</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-0.40571428571428569</v>
+      </c>
+      <c r="J5" t="s">
+        <v>762</v>
+      </c>
+      <c r="K5">
+        <v>-8.3428571428571408E-2</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="N5" s="4">
+        <v>-4.0000000000000091E-2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q5">
+        <v>-0.21028571428571441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50452</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>761</v>
+      </c>
+      <c r="D6">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.628571428571429</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.20685714285714277</v>
+      </c>
+      <c r="J6" t="s">
+        <v>763</v>
+      </c>
+      <c r="K6">
+        <v>0.20685714285714277</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="N6" s="4">
+        <v>-6.6285714285714309E-2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q6">
+        <v>-1.14285714285715E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22323</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>761</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.35314285714285731</v>
+      </c>
+      <c r="J7" t="s">
+        <v>764</v>
+      </c>
+      <c r="K7">
+        <v>0.43771428571428556</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.1085714285714285</v>
+      </c>
+      <c r="P7" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q7">
+        <v>0.33600000000000019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>39123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>761</v>
+      </c>
+      <c r="D8">
+        <v>0.754285714285714</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.754285714285714</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.56571428571428606</v>
+      </c>
+      <c r="J8" t="s">
+        <v>765</v>
+      </c>
+      <c r="K8">
+        <v>0.50171428571428567</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="N8" s="4">
+        <v>-0.27542857142857147</v>
+      </c>
+      <c r="P8" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q8">
+        <v>0.38857142857142851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>75675</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>761</v>
+      </c>
+      <c r="D9">
+        <v>0.754285714285714</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.754285714285714</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.55428571428571449</v>
+      </c>
+      <c r="J9" t="s">
+        <v>766</v>
+      </c>
+      <c r="K9">
+        <v>0.37942857142857156</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="N9" s="4">
+        <v>-0.26742857142857152</v>
+      </c>
+      <c r="P9" t="s">
+        <v>793</v>
+      </c>
+      <c r="Q9">
+        <v>0.19428571428571442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12392</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>761</v>
+      </c>
+      <c r="D10">
+        <v>0.48</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.48</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.48114285714285715</v>
+      </c>
+      <c r="J10" t="s">
+        <v>767</v>
+      </c>
+      <c r="K10">
+        <v>0.35314285714285731</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="N10" s="4">
+        <v>-0.19085714285714281</v>
+      </c>
+      <c r="P10" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q10">
+        <v>0.38171428571428578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>761</v>
+      </c>
+      <c r="D11">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.49142857142857138</v>
+      </c>
+      <c r="J11" t="s">
+        <v>768</v>
+      </c>
+      <c r="K11">
+        <v>0.56571428571428606</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="N11" s="4">
+        <v>-0.26400000000000012</v>
+      </c>
+      <c r="P11" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q11">
+        <v>0.27771428571428586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>93715</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>762</v>
+      </c>
+      <c r="D12">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.434285714285714</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.43771428571428556</v>
+      </c>
+      <c r="J12" t="s">
+        <v>769</v>
+      </c>
+      <c r="K12">
+        <v>0.55428571428571449</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1.2571428571428501E-2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q12">
+        <v>0.55999999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>62735</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>762</v>
+      </c>
+      <c r="D13">
+        <v>0.61714285714285699</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.61714285714285699</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-8.3428571428571408E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>770</v>
+      </c>
+      <c r="K13">
+        <v>0.48114285714285715</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="N13" s="4">
+        <v>-5.6000000000000105E-2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q13">
+        <v>0.40685714285714292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>42394</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>762</v>
+      </c>
+      <c r="D14">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.50171428571428567</v>
+      </c>
+      <c r="J14" t="s">
+        <v>771</v>
+      </c>
+      <c r="K14">
+        <v>0.49142857142857138</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="N14" s="4">
+        <v>-3.0857142857142906E-2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q14">
+        <v>0.35657142857142871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12312</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>762</v>
+      </c>
+      <c r="D15">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.628571428571429</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.37942857142857156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>50452</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>762</v>
+      </c>
+      <c r="D16">
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.52571428571428602</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-0.38171428571428573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>22323</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>762</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-6.6285714285714309E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>39123</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>762</v>
+      </c>
+      <c r="D18">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-0.19085714285714281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>75675</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>762</v>
+      </c>
+      <c r="D19">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51428571428571401</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-0.26400000000000012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12392</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>762</v>
+      </c>
+      <c r="D20">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.628571428571429</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.2571428571428501E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11221</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>762</v>
+      </c>
+      <c r="D21">
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-5.6000000000000105E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>93715</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>763</v>
+      </c>
+      <c r="D22">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-3.0857142857142906E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>62735</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>763</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.1085714285714285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>42394</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>763</v>
+      </c>
+      <c r="D24">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.628571428571429</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="H24" s="4">
+        <v>-4.0000000000000091E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12312</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>763</v>
+      </c>
+      <c r="D25">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.38857142857142901</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-0.27542857142857147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>50452</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>763</v>
+      </c>
+      <c r="D26">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45714285714285702</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-0.26742857142857152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22323</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>763</v>
+      </c>
+      <c r="D27">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-0.1337142857142857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>39123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>763</v>
+      </c>
+      <c r="D28">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-1.14285714285715E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>75675</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>763</v>
+      </c>
+      <c r="D29">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.38171428571428578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12392</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>763</v>
+      </c>
+      <c r="D30">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.27771428571428586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>11221</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>763</v>
+      </c>
+      <c r="D31">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.55999999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>93715</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>764</v>
+      </c>
+      <c r="D32">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51428571428571401</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.40685714285714292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>62735</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>764</v>
+      </c>
+      <c r="D33">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.35657142857142871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>42394</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>764</v>
+      </c>
+      <c r="D34">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.33600000000000019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12312</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>764</v>
+      </c>
+      <c r="D35">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51428571428571401</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="H35" s="4">
+        <v>-0.21028571428571441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>50452</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>764</v>
+      </c>
+      <c r="D36">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.68571428571428605</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.38857142857142851</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>22323</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>764</v>
+      </c>
+      <c r="D37">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45714285714285702</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.19428571428571442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>39123</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>764</v>
+      </c>
+      <c r="D38">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45714285714285702</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.13870129870129819</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>75675</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>764</v>
+      </c>
+      <c r="D39">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12392</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>764</v>
+      </c>
+      <c r="D40">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>11221</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>764</v>
+      </c>
+      <c r="D41">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.251428571428571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>93715</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>765</v>
+      </c>
+      <c r="D42">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>62735</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>765</v>
+      </c>
+      <c r="D43">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="0"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42394</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>765</v>
+      </c>
+      <c r="D44">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="0"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>12312</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>765</v>
+      </c>
+      <c r="D45">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>50452</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>765</v>
+      </c>
+      <c r="D46">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="0"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>22323</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>765</v>
+      </c>
+      <c r="D47">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>39123</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>765</v>
+      </c>
+      <c r="D48">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>75675</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>765</v>
+      </c>
+      <c r="D49">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="0"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12392</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>765</v>
+      </c>
+      <c r="D50">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="0"/>
+        <v>0.74285714285714299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>11221</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>765</v>
+      </c>
+      <c r="D51">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.29714285714285699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>93715</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>766</v>
+      </c>
+      <c r="D52">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>62735</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>766</v>
+      </c>
+      <c r="D53">
+        <v>0.48</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>42394</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>766</v>
+      </c>
+      <c r="D54">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="0"/>
+        <v>0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>12312</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>766</v>
+      </c>
+      <c r="D55">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="0"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>50452</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>766</v>
+      </c>
+      <c r="D56">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.29714285714285699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>22323</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>766</v>
+      </c>
+      <c r="D57">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="0"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>39123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>766</v>
+      </c>
+      <c r="D58">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>75675</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>766</v>
+      </c>
+      <c r="D59">
+        <v>-0.4</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>12392</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>766</v>
+      </c>
+      <c r="D60">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="0"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>11221</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>766</v>
+      </c>
+      <c r="D61">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="0"/>
+        <v>0.74285714285714299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>93715</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>767</v>
+      </c>
+      <c r="D62">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="0"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62735</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>767</v>
+      </c>
+      <c r="D63">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="0"/>
+        <v>0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>42394</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>767</v>
+      </c>
+      <c r="D64">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.251428571428571</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>12312</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>767</v>
+      </c>
+      <c r="D65">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>50452</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>767</v>
+      </c>
+      <c r="D66">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="0"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>22323</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>767</v>
+      </c>
+      <c r="D67">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" ref="E67:E130" si="1">-D67</f>
+        <v>0.22857142857142901</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>39123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>767</v>
+      </c>
+      <c r="D68">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>75675</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>767</v>
+      </c>
+      <c r="D69">
+        <v>-0.8</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>12392</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>767</v>
+      </c>
+      <c r="D70">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>11221</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>767</v>
+      </c>
+      <c r="D71">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.38857142857142901</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>93715</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>768</v>
+      </c>
+      <c r="D72">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" si="1"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>62735</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>768</v>
+      </c>
+      <c r="D73">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E73" s="4">
+        <f t="shared" si="1"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>42394</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>768</v>
+      </c>
+      <c r="D74">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="E74" s="4">
+        <f t="shared" si="1"/>
+        <v>0.74285714285714299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>12312</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>768</v>
+      </c>
+      <c r="D75">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E75" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>50452</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>768</v>
+      </c>
+      <c r="D76">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E76" s="4">
+        <f t="shared" si="1"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>22323</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>768</v>
+      </c>
+      <c r="D77">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E77" s="4">
+        <f t="shared" si="1"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>39123</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>768</v>
+      </c>
+      <c r="D78">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="E78" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>75675</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>768</v>
+      </c>
+      <c r="D79">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E79" s="4">
+        <f t="shared" si="1"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>12392</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>768</v>
+      </c>
+      <c r="D80">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="E80" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>11221</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>768</v>
+      </c>
+      <c r="D81">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E81" s="4">
+        <f t="shared" si="1"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>93715</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>769</v>
+      </c>
+      <c r="D82">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="1"/>
+        <v>0.74285714285714299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>62735</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>769</v>
+      </c>
+      <c r="D83">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" si="1"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>42394</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>769</v>
+      </c>
+      <c r="D84">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E84" s="4">
+        <f t="shared" si="1"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>12312</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>769</v>
+      </c>
+      <c r="D85">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>50452</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>769</v>
+      </c>
+      <c r="D86">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>22323</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>769</v>
+      </c>
+      <c r="D87">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E87" s="4">
+        <f t="shared" si="1"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>39123</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>769</v>
+      </c>
+      <c r="D88">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E88" s="4">
+        <f t="shared" si="1"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>75675</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>769</v>
+      </c>
+      <c r="D89">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E89" s="4">
+        <f t="shared" si="1"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>12392</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>769</v>
+      </c>
+      <c r="D90">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="E90" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>11221</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>769</v>
+      </c>
+      <c r="D91">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E91" s="4">
+        <f t="shared" si="1"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>93715</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>770</v>
+      </c>
+      <c r="D92">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E92" s="4">
+        <f t="shared" si="1"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>62735</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>770</v>
+      </c>
+      <c r="D93">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E93" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>42394</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>770</v>
+      </c>
+      <c r="D94">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E94" s="4">
+        <f t="shared" si="1"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>12312</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>770</v>
+      </c>
+      <c r="D95">
+        <v>0.16</v>
+      </c>
+      <c r="E95" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>50452</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>770</v>
+      </c>
+      <c r="D96">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E96" s="4">
+        <f t="shared" si="1"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>22323</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>770</v>
+      </c>
+      <c r="D97">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E97" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>39123</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>770</v>
+      </c>
+      <c r="D98">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E98" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>75675</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>770</v>
+      </c>
+      <c r="D99">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E99" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>12392</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>770</v>
+      </c>
+      <c r="D100">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>11221</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>770</v>
+      </c>
+      <c r="D101">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" si="1"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>93715</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>771</v>
+      </c>
+      <c r="D102">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="E102" s="4">
+        <f t="shared" si="1"/>
+        <v>0.74285714285714299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>62735</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>771</v>
+      </c>
+      <c r="D103">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E103" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>42394</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>771</v>
+      </c>
+      <c r="D104">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>12312</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>771</v>
+      </c>
+      <c r="D105">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>50452</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>771</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>22323</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>771</v>
+      </c>
+      <c r="D107">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E107" s="4">
+        <f t="shared" si="1"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>39123</v>
+      </c>
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>771</v>
+      </c>
+      <c r="D108">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E108" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>75675</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>771</v>
+      </c>
+      <c r="D109">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E109" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>12392</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>771</v>
+      </c>
+      <c r="D110">
+        <v>-0.4</v>
+      </c>
+      <c r="E110" s="4">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>11221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>771</v>
+      </c>
+      <c r="D111">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E111" s="4">
+        <f t="shared" si="1"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>93715</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>777</v>
+      </c>
+      <c r="D112">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E112" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>62735</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>777</v>
+      </c>
+      <c r="D113">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="E113" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.434285714285714</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>42394</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>777</v>
+      </c>
+      <c r="D114">
+        <v>0.754285714285714</v>
+      </c>
+      <c r="E114" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.754285714285714</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>12312</v>
+      </c>
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>777</v>
+      </c>
+      <c r="D115">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E115" s="4">
+        <f t="shared" si="1"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>50452</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>777</v>
+      </c>
+      <c r="D116">
+        <v>0.8</v>
+      </c>
+      <c r="E116" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>22323</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>777</v>
+      </c>
+      <c r="D117">
+        <v>0.8</v>
+      </c>
+      <c r="E117" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>39123</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>777</v>
+      </c>
+      <c r="D118">
+        <v>0.48</v>
+      </c>
+      <c r="E118" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>75675</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>777</v>
+      </c>
+      <c r="D119">
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="E119" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.52571428571428602</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>12392</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>777</v>
+      </c>
+      <c r="D120">
+        <v>0.8</v>
+      </c>
+      <c r="E120" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>11221</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>777</v>
+      </c>
+      <c r="D121">
+        <v>0.48</v>
+      </c>
+      <c r="E121" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>93715</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>778</v>
+      </c>
+      <c r="D122">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E122" s="4">
+        <f t="shared" si="1"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>62735</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>778</v>
+      </c>
+      <c r="D123">
+        <v>0.66285714285714303</v>
+      </c>
+      <c r="E123" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.66285714285714303</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>42394</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>778</v>
+      </c>
+      <c r="D124">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="E124" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>12312</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>778</v>
+      </c>
+      <c r="D125">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="E125" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.20571428571428599</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>50452</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>778</v>
+      </c>
+      <c r="D126">
+        <v>0.8</v>
+      </c>
+      <c r="E126" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>22323</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>778</v>
+      </c>
+      <c r="D127">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E127" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>39123</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>778</v>
+      </c>
+      <c r="D128">
+        <v>0.57142857142857195</v>
+      </c>
+      <c r="E128" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.57142857142857195</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>75675</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>778</v>
+      </c>
+      <c r="D129">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="E129" s="4">
+        <f t="shared" si="1"/>
+        <v>0.74285714285714299</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>12392</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>778</v>
+      </c>
+      <c r="D130">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E130" s="4">
+        <f t="shared" si="1"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>11221</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>778</v>
+      </c>
+      <c r="D131">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="E131" s="4">
+        <f t="shared" ref="E131:E194" si="2">-D131</f>
+        <v>-0.38857142857142901</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>93715</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>779</v>
+      </c>
+      <c r="D132">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="E132" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>62735</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>779</v>
+      </c>
+      <c r="D133">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E133" s="4">
+        <f t="shared" si="2"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>42394</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>779</v>
+      </c>
+      <c r="D134">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="E134" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.29714285714285699</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>12312</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>779</v>
+      </c>
+      <c r="D135">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E135" s="4">
+        <f t="shared" si="2"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>50452</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>779</v>
+      </c>
+      <c r="D136">
+        <v>-0.8</v>
+      </c>
+      <c r="E136" s="4">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>22323</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>779</v>
+      </c>
+      <c r="D137">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="E137" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.38857142857142901</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>39123</v>
+      </c>
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>779</v>
+      </c>
+      <c r="D138">
+        <v>0.48</v>
+      </c>
+      <c r="E138" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>75675</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>779</v>
+      </c>
+      <c r="D139">
+        <v>0.754285714285714</v>
+      </c>
+      <c r="E139" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.754285714285714</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>12392</v>
+      </c>
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>779</v>
+      </c>
+      <c r="D140">
+        <v>0.8</v>
+      </c>
+      <c r="E140" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>11221</v>
+      </c>
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>779</v>
+      </c>
+      <c r="D141">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E141" s="4">
+        <f t="shared" si="2"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>93715</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>780</v>
+      </c>
+      <c r="D142">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E142" s="4">
+        <f t="shared" si="2"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>62735</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>780</v>
+      </c>
+      <c r="D143">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E143" s="4">
+        <f t="shared" si="2"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>42394</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>780</v>
+      </c>
+      <c r="D144">
+        <v>0.8</v>
+      </c>
+      <c r="E144" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>12312</v>
+      </c>
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>780</v>
+      </c>
+      <c r="D145">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="E145" s="4">
+        <f t="shared" si="2"/>
+        <v>0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>50452</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>780</v>
+      </c>
+      <c r="D146">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E146" s="4">
+        <f t="shared" si="2"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>22323</v>
+      </c>
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>780</v>
+      </c>
+      <c r="D147">
+        <v>0.8</v>
+      </c>
+      <c r="E147" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>39123</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>780</v>
+      </c>
+      <c r="D148">
+        <v>0.8</v>
+      </c>
+      <c r="E148" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>75675</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>780</v>
+      </c>
+      <c r="D149">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E149" s="4">
+        <f t="shared" si="2"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>12392</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>780</v>
+      </c>
+      <c r="D150">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E150" s="4">
+        <f t="shared" si="2"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>11221</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>780</v>
+      </c>
+      <c r="D151">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E151" s="4">
+        <f t="shared" si="2"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>93715</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>781</v>
+      </c>
+      <c r="D152">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E152" s="4">
+        <f t="shared" si="2"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>62735</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>781</v>
+      </c>
+      <c r="D153">
+        <v>0.57142857142857195</v>
+      </c>
+      <c r="E153" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.57142857142857195</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>42394</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>781</v>
+      </c>
+      <c r="D154">
+        <v>0.8</v>
+      </c>
+      <c r="E154" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>12312</v>
+      </c>
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>781</v>
+      </c>
+      <c r="D155">
+        <v>0.8</v>
+      </c>
+      <c r="E155" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>50452</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>781</v>
+      </c>
+      <c r="D156">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E156" s="4">
+        <f t="shared" si="2"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>22323</v>
+      </c>
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>781</v>
+      </c>
+      <c r="D157">
+        <v>0.8</v>
+      </c>
+      <c r="E157" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>39123</v>
+      </c>
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>781</v>
+      </c>
+      <c r="D158">
+        <v>-0.4</v>
+      </c>
+      <c r="E158" s="4">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>75675</v>
+      </c>
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>781</v>
+      </c>
+      <c r="D159">
+        <v>0.8</v>
+      </c>
+      <c r="E159" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>12392</v>
+      </c>
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>781</v>
+      </c>
+      <c r="D160">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="E160" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.38857142857142901</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>11221</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>781</v>
+      </c>
+      <c r="D161">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="E161" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.251428571428571</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>93715</v>
+      </c>
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>782</v>
+      </c>
+      <c r="D162">
+        <v>0.57142857142857195</v>
+      </c>
+      <c r="E162" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.57142857142857195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>62735</v>
+      </c>
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>782</v>
+      </c>
+      <c r="D163">
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="E163" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.52571428571428602</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>42394</v>
+      </c>
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>782</v>
+      </c>
+      <c r="D164">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="E164" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.29714285714285699</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>12312</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>782</v>
+      </c>
+      <c r="D165">
+        <v>0.48</v>
+      </c>
+      <c r="E165" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>50452</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>782</v>
+      </c>
+      <c r="D166">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E166" s="4">
+        <f t="shared" si="2"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>22323</v>
+      </c>
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>782</v>
+      </c>
+      <c r="D167">
+        <v>0.8</v>
+      </c>
+      <c r="E167" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>39123</v>
+      </c>
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>782</v>
+      </c>
+      <c r="D168">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E168" s="4">
+        <f t="shared" si="2"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>75675</v>
+      </c>
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>782</v>
+      </c>
+      <c r="D169">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="E169" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.29714285714285699</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>12392</v>
+      </c>
+      <c r="B170" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>782</v>
+      </c>
+      <c r="D170">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="E170" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.434285714285714</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>11221</v>
+      </c>
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>782</v>
+      </c>
+      <c r="D171">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="E171" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.29714285714285699</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>93715</v>
+      </c>
+      <c r="B172" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>783</v>
+      </c>
+      <c r="D172">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="E172" s="4">
+        <f t="shared" si="2"/>
+        <v>0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>62735</v>
+      </c>
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>783</v>
+      </c>
+      <c r="D173">
+        <v>0.48</v>
+      </c>
+      <c r="E173" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>42394</v>
+      </c>
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>783</v>
+      </c>
+      <c r="D174">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E174" s="4">
+        <f t="shared" si="2"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>12312</v>
+      </c>
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>783</v>
+      </c>
+      <c r="D175">
+        <v>0.8</v>
+      </c>
+      <c r="E175" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>50452</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>783</v>
+      </c>
+      <c r="D176">
+        <v>0.48</v>
+      </c>
+      <c r="E176" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>22323</v>
+      </c>
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>783</v>
+      </c>
+      <c r="D177">
+        <v>0.8</v>
+      </c>
+      <c r="E177" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>39123</v>
+      </c>
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>783</v>
+      </c>
+      <c r="D178">
+        <v>0.8</v>
+      </c>
+      <c r="E178" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>75675</v>
+      </c>
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>783</v>
+      </c>
+      <c r="D179">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E179" s="4">
+        <f t="shared" si="2"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>12392</v>
+      </c>
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>783</v>
+      </c>
+      <c r="D180">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="E180" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.434285714285714</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>11221</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>783</v>
+      </c>
+      <c r="D181">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E181" s="4">
+        <f t="shared" si="2"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>93715</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>784</v>
+      </c>
+      <c r="D182">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="E182" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>62735</v>
+      </c>
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>784</v>
+      </c>
+      <c r="D183">
+        <v>-0.4</v>
+      </c>
+      <c r="E183" s="4">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>42394</v>
+      </c>
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>784</v>
+      </c>
+      <c r="D184">
+        <v>0.8</v>
+      </c>
+      <c r="E184" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>12312</v>
+      </c>
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>784</v>
+      </c>
+      <c r="D185">
+        <v>0.8</v>
+      </c>
+      <c r="E185" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>50452</v>
+      </c>
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>784</v>
+      </c>
+      <c r="D186">
+        <v>0.8</v>
+      </c>
+      <c r="E186" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>22323</v>
+      </c>
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>784</v>
+      </c>
+      <c r="D187">
+        <v>0.8</v>
+      </c>
+      <c r="E187" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>39123</v>
+      </c>
+      <c r="B188" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>784</v>
+      </c>
+      <c r="D188">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E188" s="4">
+        <f t="shared" si="2"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>75675</v>
+      </c>
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>784</v>
+      </c>
+      <c r="D189">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E189" s="4">
+        <f t="shared" si="2"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>12392</v>
+      </c>
+      <c r="B190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>784</v>
+      </c>
+      <c r="D190">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="E190" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>11221</v>
+      </c>
+      <c r="B191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>784</v>
+      </c>
+      <c r="D191">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="E191" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.29714285714285699</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>93715</v>
+      </c>
+      <c r="B192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>785</v>
+      </c>
+      <c r="D192">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E192" s="4">
+        <f t="shared" si="2"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>62735</v>
+      </c>
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>785</v>
+      </c>
+      <c r="D193">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="E193" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.38857142857142901</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>42394</v>
+      </c>
+      <c r="B194" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" t="s">
+        <v>785</v>
+      </c>
+      <c r="D194">
+        <v>0.8</v>
+      </c>
+      <c r="E194" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>12312</v>
+      </c>
+      <c r="B195" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" t="s">
+        <v>785</v>
+      </c>
+      <c r="D195">
+        <v>-0.4</v>
+      </c>
+      <c r="E195" s="4">
+        <f t="shared" ref="E195:E258" si="3">-D195</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>50452</v>
+      </c>
+      <c r="B196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" t="s">
+        <v>785</v>
+      </c>
+      <c r="D196">
+        <v>0.8</v>
+      </c>
+      <c r="E196" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>22323</v>
+      </c>
+      <c r="B197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" t="s">
+        <v>785</v>
+      </c>
+      <c r="D197">
+        <v>-0.4</v>
+      </c>
+      <c r="E197" s="4">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>39123</v>
+      </c>
+      <c r="B198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>785</v>
+      </c>
+      <c r="D198">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="E198" s="4">
+        <f t="shared" si="3"/>
+        <v>0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>75675</v>
+      </c>
+      <c r="B199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" t="s">
+        <v>785</v>
+      </c>
+      <c r="D199">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E199" s="4">
+        <f t="shared" si="3"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>12392</v>
+      </c>
+      <c r="B200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" t="s">
+        <v>785</v>
+      </c>
+      <c r="D200">
+        <v>0.57142857142857195</v>
+      </c>
+      <c r="E200" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.57142857142857195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>11221</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>785</v>
+      </c>
+      <c r="D201">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="E201" s="4">
+        <f t="shared" si="3"/>
+        <v>0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>93715</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>786</v>
+      </c>
+      <c r="D202">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E202" s="4">
+        <f t="shared" si="3"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>62735</v>
+      </c>
+      <c r="B203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>786</v>
+      </c>
+      <c r="D203">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="E203" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.251428571428571</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>42394</v>
+      </c>
+      <c r="B204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>786</v>
+      </c>
+      <c r="D204">
+        <v>0.8</v>
+      </c>
+      <c r="E204" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>12312</v>
+      </c>
+      <c r="B205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>786</v>
+      </c>
+      <c r="D205">
+        <v>-0.4</v>
+      </c>
+      <c r="E205" s="4">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>50452</v>
+      </c>
+      <c r="B206" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>786</v>
+      </c>
+      <c r="D206">
+        <v>0.8</v>
+      </c>
+      <c r="E206" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>22323</v>
+      </c>
+      <c r="B207" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>786</v>
+      </c>
+      <c r="D207">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E207" s="4">
+        <f t="shared" si="3"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>39123</v>
+      </c>
+      <c r="B208" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>786</v>
+      </c>
+      <c r="D208">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="E208" s="4">
+        <f t="shared" si="3"/>
+        <v>0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>75675</v>
+      </c>
+      <c r="B209" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>786</v>
+      </c>
+      <c r="D209">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E209" s="4">
+        <f t="shared" si="3"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>12392</v>
+      </c>
+      <c r="B210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" t="s">
+        <v>786</v>
+      </c>
+      <c r="D210">
+        <v>0.57142857142857195</v>
+      </c>
+      <c r="E210" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.57142857142857195</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>11221</v>
+      </c>
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>786</v>
+      </c>
+      <c r="D211">
+        <v>0.48</v>
+      </c>
+      <c r="E211" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>93715</v>
+      </c>
+      <c r="B212" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>787</v>
+      </c>
+      <c r="D212">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="E212" s="4">
+        <f t="shared" si="3"/>
+        <v>0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>62735</v>
+      </c>
+      <c r="B213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>787</v>
+      </c>
+      <c r="D213">
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="E213" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.52571428571428602</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>42394</v>
+      </c>
+      <c r="B214" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" t="s">
+        <v>787</v>
+      </c>
+      <c r="D214">
+        <v>0.8</v>
+      </c>
+      <c r="E214" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>12312</v>
+      </c>
+      <c r="B215" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>787</v>
+      </c>
+      <c r="D215">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="E215" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.29714285714285699</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>50452</v>
+      </c>
+      <c r="B216" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>787</v>
+      </c>
+      <c r="D216">
+        <v>0.8</v>
+      </c>
+      <c r="E216" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>22323</v>
+      </c>
+      <c r="B217" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217" t="s">
+        <v>787</v>
+      </c>
+      <c r="D217">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E217" s="4">
+        <f t="shared" si="3"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>39123</v>
+      </c>
+      <c r="B218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" t="s">
+        <v>787</v>
+      </c>
+      <c r="D218">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E218" s="4">
+        <f t="shared" si="3"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>75675</v>
+      </c>
+      <c r="B219" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219" t="s">
+        <v>787</v>
+      </c>
+      <c r="D219">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E219" s="4">
+        <f t="shared" si="3"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>12392</v>
+      </c>
+      <c r="B220" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" t="s">
+        <v>787</v>
+      </c>
+      <c r="D220">
+        <v>0.57142857142857195</v>
+      </c>
+      <c r="E220" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.57142857142857195</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>11221</v>
+      </c>
+      <c r="B221" t="s">
+        <v>0</v>
+      </c>
+      <c r="C221" t="s">
+        <v>787</v>
+      </c>
+      <c r="D221">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E221" s="4">
+        <f t="shared" si="3"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>93715</v>
+      </c>
+      <c r="B222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" t="s">
+        <v>788</v>
+      </c>
+      <c r="D222">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="E222" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.434285714285714</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>62735</v>
+      </c>
+      <c r="B223" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" t="s">
+        <v>788</v>
+      </c>
+      <c r="D223">
+        <v>-0.4</v>
+      </c>
+      <c r="E223" s="4">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>42394</v>
+      </c>
+      <c r="B224" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" t="s">
+        <v>788</v>
+      </c>
+      <c r="D224">
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="E224" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.52571428571428602</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>12312</v>
+      </c>
+      <c r="B225" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" t="s">
+        <v>788</v>
+      </c>
+      <c r="D225">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="E225" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.434285714285714</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>50452</v>
+      </c>
+      <c r="B226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>788</v>
+      </c>
+      <c r="D226">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="E226" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.434285714285714</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>22323</v>
+      </c>
+      <c r="B227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" t="s">
+        <v>788</v>
+      </c>
+      <c r="D227">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E227" s="4">
+        <f t="shared" si="3"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>39123</v>
+      </c>
+      <c r="B228" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" t="s">
+        <v>788</v>
+      </c>
+      <c r="D228">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E228" s="4">
+        <f t="shared" si="3"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>75675</v>
+      </c>
+      <c r="B229" t="s">
+        <v>0</v>
+      </c>
+      <c r="C229" t="s">
+        <v>788</v>
+      </c>
+      <c r="D229">
+        <v>0.8</v>
+      </c>
+      <c r="E229" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>12392</v>
+      </c>
+      <c r="B230" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>788</v>
+      </c>
+      <c r="D230">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="E230" s="4">
+        <f t="shared" si="3"/>
+        <v>0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>11221</v>
+      </c>
+      <c r="B231" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" t="s">
+        <v>788</v>
+      </c>
+      <c r="D231">
+        <v>0.48</v>
+      </c>
+      <c r="E231" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>93715</v>
+      </c>
+      <c r="B232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
+        <v>789</v>
+      </c>
+      <c r="D232">
+        <v>0.48</v>
+      </c>
+      <c r="E232" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>62735</v>
+      </c>
+      <c r="B233" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" t="s">
+        <v>789</v>
+      </c>
+      <c r="D233">
+        <v>-0.8</v>
+      </c>
+      <c r="E233" s="4">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>42394</v>
+      </c>
+      <c r="B234" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" t="s">
+        <v>789</v>
+      </c>
+      <c r="D234">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="E234" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.29714285714285699</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>12312</v>
+      </c>
+      <c r="B235" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" t="s">
+        <v>789</v>
+      </c>
+      <c r="D235">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E235" s="4">
+        <f t="shared" si="3"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>50452</v>
+      </c>
+      <c r="B236" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" t="s">
+        <v>789</v>
+      </c>
+      <c r="D236">
+        <v>0.70857142857142896</v>
+      </c>
+      <c r="E236" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.70857142857142896</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>22323</v>
+      </c>
+      <c r="B237" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237" t="s">
+        <v>789</v>
+      </c>
+      <c r="D237">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="E237" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.38857142857142901</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>39123</v>
+      </c>
+      <c r="B238" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" t="s">
+        <v>789</v>
+      </c>
+      <c r="D238">
+        <v>0.8</v>
+      </c>
+      <c r="E238" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>75675</v>
+      </c>
+      <c r="B239" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239" t="s">
+        <v>789</v>
+      </c>
+      <c r="D239">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="E239" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>12392</v>
+      </c>
+      <c r="B240" t="s">
+        <v>0</v>
+      </c>
+      <c r="C240" t="s">
+        <v>789</v>
+      </c>
+      <c r="D240">
+        <v>0.8</v>
+      </c>
+      <c r="E240" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>11221</v>
+      </c>
+      <c r="B241" t="s">
+        <v>0</v>
+      </c>
+      <c r="C241" t="s">
+        <v>789</v>
+      </c>
+      <c r="D241">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E241" s="4">
+        <f t="shared" si="3"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>93715</v>
+      </c>
+      <c r="B242" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" t="s">
+        <v>790</v>
+      </c>
+      <c r="D242">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="E242" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.20571428571428599</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>62735</v>
+      </c>
+      <c r="B243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C243" t="s">
+        <v>790</v>
+      </c>
+      <c r="D243">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="E243" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>42394</v>
+      </c>
+      <c r="B244" t="s">
+        <v>0</v>
+      </c>
+      <c r="C244" t="s">
+        <v>790</v>
+      </c>
+      <c r="D244">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="E244" s="4">
+        <f t="shared" si="3"/>
+        <v>0.74285714285714299</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>12312</v>
+      </c>
+      <c r="B245" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245" t="s">
+        <v>790</v>
+      </c>
+      <c r="D245">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="E245" s="4">
+        <f t="shared" si="3"/>
+        <v>0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>50452</v>
+      </c>
+      <c r="B246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C246" t="s">
+        <v>790</v>
+      </c>
+      <c r="D246">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="E246" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.29714285714285699</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>22323</v>
+      </c>
+      <c r="B247" t="s">
+        <v>0</v>
+      </c>
+      <c r="C247" t="s">
+        <v>790</v>
+      </c>
+      <c r="D247">
+        <v>0.57142857142857195</v>
+      </c>
+      <c r="E247" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.57142857142857195</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>39123</v>
+      </c>
+      <c r="B248" t="s">
+        <v>0</v>
+      </c>
+      <c r="C248" t="s">
+        <v>790</v>
+      </c>
+      <c r="D248">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E248" s="4">
+        <f t="shared" si="3"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>75675</v>
+      </c>
+      <c r="B249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C249" t="s">
+        <v>790</v>
+      </c>
+      <c r="D249">
+        <v>-0.4</v>
+      </c>
+      <c r="E249" s="4">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>12392</v>
+      </c>
+      <c r="B250" t="s">
+        <v>0</v>
+      </c>
+      <c r="C250" t="s">
+        <v>790</v>
+      </c>
+      <c r="D250">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="E250" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>11221</v>
+      </c>
+      <c r="B251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" t="s">
+        <v>790</v>
+      </c>
+      <c r="D251">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="E251" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.29714285714285699</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>93715</v>
+      </c>
+      <c r="B252" t="s">
+        <v>0</v>
+      </c>
+      <c r="C252" t="s">
+        <v>791</v>
+      </c>
+      <c r="D252">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="E252" s="4">
+        <f t="shared" si="3"/>
+        <v>0.22857142857142901</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>62735</v>
+      </c>
+      <c r="B253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253" t="s">
+        <v>791</v>
+      </c>
+      <c r="D253">
+        <v>2.2857142857142899E-2</v>
+      </c>
+      <c r="E253" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.2857142857142899E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>42394</v>
+      </c>
+      <c r="B254" t="s">
+        <v>0</v>
+      </c>
+      <c r="C254" t="s">
+        <v>791</v>
+      </c>
+      <c r="D254">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="E254" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.251428571428571</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>12312</v>
+      </c>
+      <c r="B255" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" t="s">
+        <v>791</v>
+      </c>
+      <c r="D255">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E255" s="4">
+        <f t="shared" si="3"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>50452</v>
+      </c>
+      <c r="B256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>791</v>
+      </c>
+      <c r="D256">
+        <v>-0.8</v>
+      </c>
+      <c r="E256" s="4">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>22323</v>
+      </c>
+      <c r="B257" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>791</v>
+      </c>
+      <c r="D257">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E257" s="4">
+        <f t="shared" si="3"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>39123</v>
+      </c>
+      <c r="B258" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
+        <v>791</v>
+      </c>
+      <c r="D258">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E258" s="4">
+        <f t="shared" si="3"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>75675</v>
+      </c>
+      <c r="B259" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
+        <v>791</v>
+      </c>
+      <c r="D259">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="E259" s="4">
+        <f t="shared" ref="E259:E322" si="4">-D259</f>
+        <v>-0.251428571428571</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>12392</v>
+      </c>
+      <c r="B260" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>791</v>
+      </c>
+      <c r="D260">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E260" s="4">
+        <f t="shared" si="4"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>11221</v>
+      </c>
+      <c r="B261" t="s">
+        <v>0</v>
+      </c>
+      <c r="C261" t="s">
+        <v>791</v>
+      </c>
+      <c r="D261">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E261" s="4">
+        <f t="shared" si="4"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>93715</v>
+      </c>
+      <c r="B262" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" t="s">
+        <v>792</v>
+      </c>
+      <c r="D262">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E262" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>62735</v>
+      </c>
+      <c r="B263" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263" t="s">
+        <v>792</v>
+      </c>
+      <c r="D263">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E263" s="4">
+        <f t="shared" si="4"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>42394</v>
+      </c>
+      <c r="B264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C264" t="s">
+        <v>792</v>
+      </c>
+      <c r="D264">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E264" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>12312</v>
+      </c>
+      <c r="B265" t="s">
+        <v>0</v>
+      </c>
+      <c r="C265" t="s">
+        <v>792</v>
+      </c>
+      <c r="D265">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E265" s="4">
+        <f t="shared" si="4"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>50452</v>
+      </c>
+      <c r="B266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C266" t="s">
+        <v>792</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>22323</v>
+      </c>
+      <c r="B267" t="s">
+        <v>0</v>
+      </c>
+      <c r="C267" t="s">
+        <v>792</v>
+      </c>
+      <c r="D267">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E267" s="4">
+        <f t="shared" si="4"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>39123</v>
+      </c>
+      <c r="B268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C268" t="s">
+        <v>792</v>
+      </c>
+      <c r="D268">
+        <v>0.8</v>
+      </c>
+      <c r="E268" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>75675</v>
+      </c>
+      <c r="B269" t="s">
+        <v>0</v>
+      </c>
+      <c r="C269" t="s">
+        <v>792</v>
+      </c>
+      <c r="D269">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E269" s="4">
+        <f t="shared" si="4"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>12392</v>
+      </c>
+      <c r="B270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" t="s">
+        <v>792</v>
+      </c>
+      <c r="D270">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E270" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>11221</v>
+      </c>
+      <c r="B271" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" t="s">
+        <v>792</v>
+      </c>
+      <c r="D271">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E271" s="4">
+        <f t="shared" si="4"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>93715</v>
+      </c>
+      <c r="B272" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" t="s">
+        <v>793</v>
+      </c>
+      <c r="D272">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E272" s="4">
+        <f t="shared" si="4"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>62735</v>
+      </c>
+      <c r="B273" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273" t="s">
+        <v>793</v>
+      </c>
+      <c r="D273">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="E273" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.38857142857142901</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>42394</v>
+      </c>
+      <c r="B274" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" t="s">
+        <v>793</v>
+      </c>
+      <c r="D274">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E274" s="4">
+        <f t="shared" si="4"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>12312</v>
+      </c>
+      <c r="B275" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275" t="s">
+        <v>793</v>
+      </c>
+      <c r="D275">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="E275" s="4">
+        <f t="shared" si="4"/>
+        <v>0.22857142857142901</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>50452</v>
+      </c>
+      <c r="B276" t="s">
+        <v>0</v>
+      </c>
+      <c r="C276" t="s">
+        <v>793</v>
+      </c>
+      <c r="D276">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="E276" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.20571428571428599</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>22323</v>
+      </c>
+      <c r="B277" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" t="s">
+        <v>793</v>
+      </c>
+      <c r="D277">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E277" s="4">
+        <f t="shared" si="4"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>39123</v>
+      </c>
+      <c r="B278" t="s">
+        <v>0</v>
+      </c>
+      <c r="C278" t="s">
+        <v>793</v>
+      </c>
+      <c r="D278">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E278" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>75675</v>
+      </c>
+      <c r="B279" t="s">
+        <v>0</v>
+      </c>
+      <c r="C279" t="s">
+        <v>793</v>
+      </c>
+      <c r="D279">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="E279" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.434285714285714</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>12392</v>
+      </c>
+      <c r="B280" t="s">
+        <v>0</v>
+      </c>
+      <c r="C280" t="s">
+        <v>793</v>
+      </c>
+      <c r="D280">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="E280" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.114285714285714</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>11221</v>
+      </c>
+      <c r="B281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281" t="s">
+        <v>793</v>
+      </c>
+      <c r="D281">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E281" s="4">
+        <f t="shared" si="4"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>93715</v>
+      </c>
+      <c r="B282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" t="s">
+        <v>794</v>
+      </c>
+      <c r="D282">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="E282" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.29714285714285699</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>62735</v>
+      </c>
+      <c r="B283" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" t="s">
+        <v>794</v>
+      </c>
+      <c r="D283">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="E283" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.251428571428571</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>42394</v>
+      </c>
+      <c r="B284" t="s">
+        <v>0</v>
+      </c>
+      <c r="C284" t="s">
+        <v>794</v>
+      </c>
+      <c r="D284">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E284" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>12312</v>
+      </c>
+      <c r="B285" t="s">
+        <v>0</v>
+      </c>
+      <c r="C285" t="s">
+        <v>794</v>
+      </c>
+      <c r="D285">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E285" s="4">
+        <f t="shared" si="4"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>50452</v>
+      </c>
+      <c r="B286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" t="s">
+        <v>794</v>
+      </c>
+      <c r="D286">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E286" s="4">
+        <f t="shared" si="4"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>22323</v>
+      </c>
+      <c r="B287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" t="s">
+        <v>794</v>
+      </c>
+      <c r="D287">
+        <v>-0.8</v>
+      </c>
+      <c r="E287" s="4">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>39123</v>
+      </c>
+      <c r="B288" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" t="s">
+        <v>794</v>
+      </c>
+      <c r="D288">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="E288" s="4">
+        <f t="shared" si="4"/>
+        <v>0.74285714285714299</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>75675</v>
+      </c>
+      <c r="B289" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" t="s">
+        <v>794</v>
+      </c>
+      <c r="D289">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="E289" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.20571428571428599</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>12392</v>
+      </c>
+      <c r="B290" t="s">
+        <v>0</v>
+      </c>
+      <c r="C290" t="s">
+        <v>794</v>
+      </c>
+      <c r="D290">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E290" s="4">
+        <f t="shared" si="4"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>11221</v>
+      </c>
+      <c r="B291" t="s">
+        <v>0</v>
+      </c>
+      <c r="C291" t="s">
+        <v>794</v>
+      </c>
+      <c r="D291">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E291" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>93715</v>
+      </c>
+      <c r="B292" t="s">
+        <v>0</v>
+      </c>
+      <c r="C292" t="s">
+        <v>795</v>
+      </c>
+      <c r="D292">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E292" s="4">
+        <f t="shared" si="4"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>62735</v>
+      </c>
+      <c r="B293" t="s">
+        <v>0</v>
+      </c>
+      <c r="C293" t="s">
+        <v>795</v>
+      </c>
+      <c r="D293">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="E293" s="4">
+        <f t="shared" si="4"/>
+        <v>0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>42394</v>
+      </c>
+      <c r="B294" t="s">
+        <v>0</v>
+      </c>
+      <c r="C294" t="s">
+        <v>795</v>
+      </c>
+      <c r="D294">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E294" s="4">
+        <f t="shared" si="4"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>12312</v>
+      </c>
+      <c r="B295" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" t="s">
+        <v>795</v>
+      </c>
+      <c r="D295">
+        <v>-0.4</v>
+      </c>
+      <c r="E295" s="4">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>50452</v>
+      </c>
+      <c r="B296" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" t="s">
+        <v>795</v>
+      </c>
+      <c r="D296">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="E296" s="4">
+        <f t="shared" si="4"/>
+        <v>0.22857142857142901</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>22323</v>
+      </c>
+      <c r="B297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C297" t="s">
+        <v>795</v>
+      </c>
+      <c r="D297">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="E297" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.38857142857142901</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>39123</v>
+      </c>
+      <c r="B298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C298" t="s">
+        <v>795</v>
+      </c>
+      <c r="D298">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E298" s="4">
+        <f t="shared" si="4"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>75675</v>
+      </c>
+      <c r="B299" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" t="s">
+        <v>795</v>
+      </c>
+      <c r="D299">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="E299" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.434285714285714</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>12392</v>
+      </c>
+      <c r="B300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C300" t="s">
+        <v>795</v>
+      </c>
+      <c r="D300">
+        <v>-0.4</v>
+      </c>
+      <c r="E300" s="4">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>11221</v>
+      </c>
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" t="s">
+        <v>795</v>
+      </c>
+      <c r="D301">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E301" s="4">
+        <f t="shared" si="4"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>93715</v>
+      </c>
+      <c r="B302" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" t="s">
+        <v>796</v>
+      </c>
+      <c r="D302">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="E302" s="4">
+        <f t="shared" si="4"/>
+        <v>0.74285714285714299</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>62735</v>
+      </c>
+      <c r="B303" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303" t="s">
+        <v>796</v>
+      </c>
+      <c r="D303">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="E303" s="4">
+        <f t="shared" si="4"/>
+        <v>0.17142857142857101</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>42394</v>
+      </c>
+      <c r="B304" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304" t="s">
+        <v>796</v>
+      </c>
+      <c r="D304">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E304" s="4">
+        <f t="shared" si="4"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>12312</v>
+      </c>
+      <c r="B305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C305" t="s">
+        <v>796</v>
+      </c>
+      <c r="D305">
+        <v>-0.4</v>
+      </c>
+      <c r="E305" s="4">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>50452</v>
+      </c>
+      <c r="B306" t="s">
+        <v>0</v>
+      </c>
+      <c r="C306" t="s">
+        <v>796</v>
+      </c>
+      <c r="D306">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="E306" s="4">
+        <f t="shared" si="4"/>
+        <v>0.74285714285714299</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>22323</v>
+      </c>
+      <c r="B307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" t="s">
+        <v>796</v>
+      </c>
+      <c r="D307">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E307" s="4">
+        <f t="shared" si="4"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>39123</v>
+      </c>
+      <c r="B308" t="s">
+        <v>0</v>
+      </c>
+      <c r="C308" t="s">
+        <v>796</v>
+      </c>
+      <c r="D308">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E308" s="4">
+        <f t="shared" si="4"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>75675</v>
+      </c>
+      <c r="B309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" t="s">
+        <v>796</v>
+      </c>
+      <c r="D309">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E309" s="4">
+        <f t="shared" si="4"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>12392</v>
+      </c>
+      <c r="B310" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" t="s">
+        <v>796</v>
+      </c>
+      <c r="D310">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E310" s="4">
+        <f t="shared" si="4"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>11221</v>
+      </c>
+      <c r="B311" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311" t="s">
+        <v>796</v>
+      </c>
+      <c r="D311">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E311" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>93715</v>
+      </c>
+      <c r="B312" t="s">
+        <v>0</v>
+      </c>
+      <c r="C312" t="s">
+        <v>797</v>
+      </c>
+      <c r="D312">
+        <v>0.16</v>
+      </c>
+      <c r="E312" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>62735</v>
+      </c>
+      <c r="B313" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" t="s">
+        <v>797</v>
+      </c>
+      <c r="D313">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E313" s="4">
+        <f t="shared" si="4"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>42394</v>
+      </c>
+      <c r="B314" t="s">
+        <v>0</v>
+      </c>
+      <c r="C314" t="s">
+        <v>797</v>
+      </c>
+      <c r="D314">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E314" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>12312</v>
+      </c>
+      <c r="B315" t="s">
+        <v>0</v>
+      </c>
+      <c r="C315" t="s">
+        <v>797</v>
+      </c>
+      <c r="D315">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="E315" s="4">
+        <f t="shared" si="4"/>
+        <v>0.74285714285714299</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>50452</v>
+      </c>
+      <c r="B316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C316" t="s">
+        <v>797</v>
+      </c>
+      <c r="D316">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="E316" s="4">
+        <f t="shared" si="4"/>
+        <v>0.17142857142857101</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>22323</v>
+      </c>
+      <c r="B317" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" t="s">
+        <v>797</v>
+      </c>
+      <c r="D317">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E317" s="4">
+        <f t="shared" si="4"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>39123</v>
+      </c>
+      <c r="B318" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" t="s">
+        <v>797</v>
+      </c>
+      <c r="D318">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="E318" s="4">
+        <f t="shared" si="4"/>
+        <v>0.74285714285714299</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>75675</v>
+      </c>
+      <c r="B319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" t="s">
+        <v>797</v>
+      </c>
+      <c r="D319">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E319" s="4">
+        <f t="shared" si="4"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>12392</v>
+      </c>
+      <c r="B320" t="s">
+        <v>0</v>
+      </c>
+      <c r="C320" t="s">
+        <v>797</v>
+      </c>
+      <c r="D320">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="E320" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>11221</v>
+      </c>
+      <c r="B321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C321" t="s">
+        <v>797</v>
+      </c>
+      <c r="D321">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E321" s="4">
+        <f t="shared" si="4"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>93715</v>
+      </c>
+      <c r="B322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C322" t="s">
+        <v>798</v>
+      </c>
+      <c r="D322">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E322" s="4">
+        <f t="shared" si="4"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>62735</v>
+      </c>
+      <c r="B323" t="s">
+        <v>0</v>
+      </c>
+      <c r="C323" t="s">
+        <v>798</v>
+      </c>
+      <c r="D323">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="E323" s="4">
+        <f t="shared" ref="E323:E331" si="5">-D323</f>
+        <v>-0.434285714285714</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>42394</v>
+      </c>
+      <c r="B324" t="s">
+        <v>0</v>
+      </c>
+      <c r="C324" t="s">
+        <v>798</v>
+      </c>
+      <c r="D324">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="E324" s="4">
+        <f t="shared" si="5"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>12312</v>
+      </c>
+      <c r="B325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C325" t="s">
+        <v>798</v>
+      </c>
+      <c r="D325">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="E325" s="4">
+        <f t="shared" si="5"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>50452</v>
+      </c>
+      <c r="B326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C326" t="s">
+        <v>798</v>
+      </c>
+      <c r="D326">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="E326" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.34285714285714303</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>22323</v>
+      </c>
+      <c r="B327" t="s">
+        <v>0</v>
+      </c>
+      <c r="C327" t="s">
+        <v>798</v>
+      </c>
+      <c r="D327">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="E327" s="4">
+        <f t="shared" si="5"/>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>39123</v>
+      </c>
+      <c r="B328" t="s">
+        <v>0</v>
+      </c>
+      <c r="C328" t="s">
+        <v>798</v>
+      </c>
+      <c r="D328">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="E328" s="4">
+        <f t="shared" si="5"/>
+        <v>0.22857142857142901</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>75675</v>
+      </c>
+      <c r="B329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C329" t="s">
+        <v>798</v>
+      </c>
+      <c r="D329">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E329" s="4">
+        <f t="shared" si="5"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>12392</v>
+      </c>
+      <c r="B330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C330" t="s">
+        <v>798</v>
+      </c>
+      <c r="D330">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="E330" s="4">
+        <f t="shared" si="5"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>11221</v>
+      </c>
+      <c r="B331" t="s">
+        <v>0</v>
+      </c>
+      <c r="C331" t="s">
+        <v>798</v>
+      </c>
+      <c r="D331">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="E331" s="4">
+        <f t="shared" si="5"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/doc_koncowa/testy/wyniki_testow.xlsx
+++ b/doc/doc_koncowa/testy/wyniki_testow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="UCB1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,19 @@
     <sheet name="UCBM" sheetId="3" r:id="rId3"/>
     <sheet name="ALL" sheetId="4" r:id="rId4"/>
     <sheet name="ITERACJE" sheetId="5" r:id="rId5"/>
+    <sheet name="CELLS" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ALL!$A$1:$B$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UCB1'!$L$1:$M$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UCBM!$L$1:$M$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UCBV!$L$1:$M$21</definedName>
+    <definedName name="cell_01" localSheetId="5">CELLS!$A$2:$E$81</definedName>
+    <definedName name="cell_02" localSheetId="5">CELLS!$H$2:$L$81</definedName>
+    <definedName name="cell_03" localSheetId="5">CELLS!$O$2:$S$81</definedName>
+    <definedName name="cell_04" localSheetId="5">CELLS!$V$2:$Z$81</definedName>
+    <definedName name="cell_05" localSheetId="5">CELLS!$AC$2:$AG$81</definedName>
+    <definedName name="cell_06" localSheetId="5">CELLS!$AJ$2:$AN$81</definedName>
     <definedName name="iterations_ucb1" localSheetId="4">ITERACJE!$A$2:$E$111</definedName>
     <definedName name="iterations_ucbm" localSheetId="4">ITERACJE!$A$112:$E$221</definedName>
     <definedName name="params_ucb1" localSheetId="0">'UCB1'!$A$227:$G$301</definedName>
@@ -33,17 +40,89 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
-    <pivotCache cacheId="2" r:id="rId8"/>
-    <pivotCache cacheId="5" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="3" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="iterations_ucb1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" name="cell_01" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\doc\doc_koncowa\testy\cell_01.csv" thousands=" " comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="cell_02" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\doc\doc_koncowa\testy\cell_02.csv" thousands=" " tab="0" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="cell_03" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\doc\doc_koncowa\testy\cell_03.csv" thousands=" " comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="cell_04" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\doc\doc_koncowa\testy\cell_04.csv" thousands=" " tab="0" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="cell_05" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\doc\doc_koncowa\testy\cell_05.csv" thousands=" " comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="cell_06" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\doc\doc_koncowa\testy\cell_06.csv" thousands=" " comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="iterations_ucb1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\src\Connect4UCT\ConnectFourUCTTester\bin\Release\iterations_ucb1.csv" thousands=" " comma="1">
       <textFields count="6">
         <textField/>
@@ -55,7 +134,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="iterations_ucbm" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" name="iterations_ucbm" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\src\Connect4UCT\ConnectFourUCTTester\bin\Release\iterations_ucbm.csv" thousands=" " comma="1">
       <textFields count="6">
         <textField/>
@@ -67,7 +146,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="params_ucb1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" name="params_ucb1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\src\Connect4UCT\ConnectFourUCTTester\bin\Release\params_ucb1.csv" thousands=" " comma="1">
       <textFields count="7">
         <textField/>
@@ -80,7 +159,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="params_ucbm" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="10" name="params_ucbm" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\doc\doc_koncowa\testy\params_ucbm.csv" thousands=" " tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -93,7 +172,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="params_ucbv" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="11" name="params_ucbv" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\doc\doc_koncowa\testy\params_ucbv.csv" thousands=" " tab="0" comma="1">
       <textFields count="6">
         <textField/>
@@ -105,7 +184,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="params_ucbv1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="12" name="params_ucbv1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\src\Connect4UCT\ConnectFourUCTTester\bin\Release\params_ucbv.csv" thousands=" " comma="1">
       <textFields count="8">
         <textField/>
@@ -119,7 +198,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="params_ucbv2" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="13" name="params_ucbv2" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\Studia\_MetodySztucznejInteligencji2\msi2-2-mcts-uct\src\Connect4UCT\ConnectFourUCTTester\bin\Release\params_ucbv.csv" thousands=" " comma="1">
       <textFields count="8">
         <textField/>
@@ -137,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4380" uniqueCount="808">
   <si>
     <t xml:space="preserve"> GREEDY</t>
   </si>
@@ -2537,6 +2616,30 @@
   </si>
   <si>
     <t>Average of UCT REWARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBV(2) (0.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCBV(1.4) (0.5)</t>
+  </si>
+  <si>
+    <t>CELL1 RESULT</t>
+  </si>
+  <si>
+    <t>CELL2 RESULT</t>
+  </si>
+  <si>
+    <t>CELL3 RESULT</t>
+  </si>
+  <si>
+    <t>CELL4 RESULT</t>
+  </si>
+  <si>
+    <t>CELL5 RESULT</t>
+  </si>
+  <si>
+    <t>CELL6 RESULT</t>
   </si>
 </sst>
 </file>
@@ -13427,7 +13530,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G4:H38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -13596,31 +13699,55 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucb1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucb1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_01" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_04" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_03" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_02" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbv_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbv_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbv" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbv" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbm" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbm" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbv" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="params_ucbv" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="iterations_ucbm" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="iterations_ucbm" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="iterations_ucb1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="iterations_ucb1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_06" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_05" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35055,7 +35182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4:Q14"/>
     </sheetView>
   </sheetViews>
@@ -41447,4 +41574,9377 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AO81" sqref="AO2:AO81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="16" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6" customWidth="1"/>
+    <col min="30" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2.7109375" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6" customWidth="1"/>
+    <col min="37" max="38" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2.7109375" customWidth="1"/>
+    <col min="40" max="40" width="17.140625" customWidth="1"/>
+    <col min="41" max="41" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>802</v>
+      </c>
+      <c r="M1" t="s">
+        <v>803</v>
+      </c>
+      <c r="T1" t="s">
+        <v>804</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>805</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>806</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>93715</v>
+      </c>
+      <c r="B2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="F2">
+        <f>E2</f>
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="H2">
+        <v>93715</v>
+      </c>
+      <c r="I2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="M2">
+        <f>L2</f>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="O2">
+        <v>93715</v>
+      </c>
+      <c r="P2" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="T2">
+        <f>S2</f>
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="V2">
+        <v>93715</v>
+      </c>
+      <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AA2">
+        <f>Z2</f>
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AC2">
+        <v>93715</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF2">
+        <v>-1</v>
+      </c>
+      <c r="AG2">
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="AH2">
+        <f>AG2</f>
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="AJ2">
+        <v>93715</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>0.8</v>
+      </c>
+      <c r="AO2">
+        <f>AN2</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>62735</v>
+      </c>
+      <c r="B3" t="s">
+        <v>800</v>
+      </c>
+      <c r="C3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F41" si="0">E3</f>
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="H3">
+        <v>62735</v>
+      </c>
+      <c r="I3" t="s">
+        <v>800</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M41" si="1">L3</f>
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="O3">
+        <v>62735</v>
+      </c>
+      <c r="P3" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T41" si="2">S3</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>62735</v>
+      </c>
+      <c r="W3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0.16</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA41" si="3">Z3</f>
+        <v>0.16</v>
+      </c>
+      <c r="AC3">
+        <v>62735</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH41" si="4">AG3</f>
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>62735</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>0.16</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" ref="AO3:AO41" si="5">AN3</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>42394</v>
+      </c>
+      <c r="B4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C4" t="s">
+        <v>801</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="H4">
+        <v>42394</v>
+      </c>
+      <c r="I4" t="s">
+        <v>800</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="O4">
+        <v>42394</v>
+      </c>
+      <c r="P4" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0.754285714285714</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>0.754285714285714</v>
+      </c>
+      <c r="V4">
+        <v>42394</v>
+      </c>
+      <c r="W4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="3"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AC4">
+        <v>42394</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF4">
+        <v>-1</v>
+      </c>
+      <c r="AG4">
+        <v>-0.8</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="4"/>
+        <v>-0.8</v>
+      </c>
+      <c r="AJ4">
+        <v>42394</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>0.8</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12312</v>
+      </c>
+      <c r="B5" t="s">
+        <v>800</v>
+      </c>
+      <c r="C5" t="s">
+        <v>801</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="H5">
+        <v>12312</v>
+      </c>
+      <c r="I5" t="s">
+        <v>800</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="O5">
+        <v>12312</v>
+      </c>
+      <c r="P5" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>12312</v>
+      </c>
+      <c r="W5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="3"/>
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AC5">
+        <v>12312</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5">
+        <v>-1</v>
+      </c>
+      <c r="AG5">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="4"/>
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AJ5">
+        <v>12312</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="5"/>
+        <v>6.8571428571428603E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50452</v>
+      </c>
+      <c r="B6" t="s">
+        <v>800</v>
+      </c>
+      <c r="C6" t="s">
+        <v>801</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.251428571428571</v>
+      </c>
+      <c r="H6">
+        <v>50452</v>
+      </c>
+      <c r="I6" t="s">
+        <v>800</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="O6">
+        <v>50452</v>
+      </c>
+      <c r="P6" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>0.434285714285714</v>
+      </c>
+      <c r="V6">
+        <v>50452</v>
+      </c>
+      <c r="W6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="3"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AC6">
+        <v>50452</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF6">
+        <v>-1</v>
+      </c>
+      <c r="AG6">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="4"/>
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="AJ6">
+        <v>50452</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="5"/>
+        <v>0.114285714285714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22323</v>
+      </c>
+      <c r="B7" t="s">
+        <v>800</v>
+      </c>
+      <c r="C7" t="s">
+        <v>801</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="H7">
+        <v>22323</v>
+      </c>
+      <c r="I7" t="s">
+        <v>800</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="O7">
+        <v>22323</v>
+      </c>
+      <c r="P7" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>22323</v>
+      </c>
+      <c r="W7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="3"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AC7">
+        <v>22323</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="4"/>
+        <v>0.251428571428571</v>
+      </c>
+      <c r="AJ7">
+        <v>22323</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>0.8</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>39123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>800</v>
+      </c>
+      <c r="C8" t="s">
+        <v>801</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="H8">
+        <v>39123</v>
+      </c>
+      <c r="I8" t="s">
+        <v>800</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="O8">
+        <v>39123</v>
+      </c>
+      <c r="P8" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0.8</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="V8">
+        <v>39123</v>
+      </c>
+      <c r="W8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="3"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AC8">
+        <v>39123</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF8">
+        <v>-1</v>
+      </c>
+      <c r="AG8">
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="4"/>
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="AJ8">
+        <v>39123</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM8">
+        <v>-1</v>
+      </c>
+      <c r="AN8">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="5"/>
+        <v>-0.22857142857142901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>75675</v>
+      </c>
+      <c r="B9" t="s">
+        <v>800</v>
+      </c>
+      <c r="C9" t="s">
+        <v>801</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="H9">
+        <v>75675</v>
+      </c>
+      <c r="I9" t="s">
+        <v>800</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>75675</v>
+      </c>
+      <c r="P9" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>75675</v>
+      </c>
+      <c r="W9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="3"/>
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="AC9">
+        <v>75675</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>0.48</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="4"/>
+        <v>0.48</v>
+      </c>
+      <c r="AJ9">
+        <v>75675</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM9">
+        <v>-1</v>
+      </c>
+      <c r="AN9">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="5"/>
+        <v>-0.114285714285714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12392</v>
+      </c>
+      <c r="B10" t="s">
+        <v>800</v>
+      </c>
+      <c r="C10" t="s">
+        <v>801</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>12392</v>
+      </c>
+      <c r="I10" t="s">
+        <v>800</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="O10">
+        <v>12392</v>
+      </c>
+      <c r="P10" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>2.2857142857142899E-2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>2.2857142857142899E-2</v>
+      </c>
+      <c r="V10">
+        <v>12392</v>
+      </c>
+      <c r="W10" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="3"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AC10">
+        <v>12392</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="4"/>
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="AJ10">
+        <v>12392</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>800</v>
+      </c>
+      <c r="C11" t="s">
+        <v>801</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="H11">
+        <v>11221</v>
+      </c>
+      <c r="I11" t="s">
+        <v>800</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>11221</v>
+      </c>
+      <c r="P11" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>-1</v>
+      </c>
+      <c r="S11">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="V11">
+        <v>11221</v>
+      </c>
+      <c r="W11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="3"/>
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AC11">
+        <v>11221</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF11">
+        <v>-1</v>
+      </c>
+      <c r="AG11">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="4"/>
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="AJ11">
+        <v>11221</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="5"/>
+        <v>0.434285714285714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>800</v>
+      </c>
+      <c r="C12" t="s">
+        <v>801</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.57142857142857195</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857195</v>
+      </c>
+      <c r="H12">
+        <v>13200</v>
+      </c>
+      <c r="I12" t="s">
+        <v>800</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.16</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="O12">
+        <v>13200</v>
+      </c>
+      <c r="P12" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <v>-1</v>
+      </c>
+      <c r="S12">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="V12">
+        <v>13200</v>
+      </c>
+      <c r="W12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>13200</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF12">
+        <v>-1</v>
+      </c>
+      <c r="AG12">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="4"/>
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="AJ12">
+        <v>13200</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM12">
+        <v>-1</v>
+      </c>
+      <c r="AN12">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="5"/>
+        <v>-0.628571428571429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>99932</v>
+      </c>
+      <c r="B13" t="s">
+        <v>800</v>
+      </c>
+      <c r="C13" t="s">
+        <v>801</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="H13">
+        <v>99932</v>
+      </c>
+      <c r="I13" t="s">
+        <v>800</v>
+      </c>
+      <c r="J13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>99932</v>
+      </c>
+      <c r="P13" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>99932</v>
+      </c>
+      <c r="W13" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="3"/>
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="AC13">
+        <v>99932</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF13">
+        <v>-1</v>
+      </c>
+      <c r="AG13">
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="4"/>
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="AJ13">
+        <v>99932</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM13">
+        <v>-1</v>
+      </c>
+      <c r="AN13">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="5"/>
+        <v>-0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>65651</v>
+      </c>
+      <c r="B14" t="s">
+        <v>800</v>
+      </c>
+      <c r="C14" t="s">
+        <v>801</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="H14">
+        <v>65651</v>
+      </c>
+      <c r="I14" t="s">
+        <v>800</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="O14">
+        <v>65651</v>
+      </c>
+      <c r="P14" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>-1</v>
+      </c>
+      <c r="S14">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="V14">
+        <v>65651</v>
+      </c>
+      <c r="W14" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="3"/>
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AC14">
+        <v>65651</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF14">
+        <v>-1</v>
+      </c>
+      <c r="AG14">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="4"/>
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AJ14">
+        <v>65651</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM14">
+        <v>-1</v>
+      </c>
+      <c r="AN14">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="5"/>
+        <v>-0.114285714285714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>83737</v>
+      </c>
+      <c r="B15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C15" t="s">
+        <v>801</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="H15">
+        <v>83737</v>
+      </c>
+      <c r="I15" t="s">
+        <v>800</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="O15">
+        <v>83737</v>
+      </c>
+      <c r="P15" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>83737</v>
+      </c>
+      <c r="W15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>0.16</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="AC15">
+        <v>83737</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>0.754285714285714</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="4"/>
+        <v>0.754285714285714</v>
+      </c>
+      <c r="AJ15">
+        <v>83737</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM15">
+        <v>-1</v>
+      </c>
+      <c r="AN15">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="5"/>
+        <v>-0.17142857142857101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20991</v>
+      </c>
+      <c r="B16" t="s">
+        <v>800</v>
+      </c>
+      <c r="C16" t="s">
+        <v>801</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0.8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H16">
+        <v>20991</v>
+      </c>
+      <c r="I16" t="s">
+        <v>800</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.48</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="O16">
+        <v>20991</v>
+      </c>
+      <c r="P16" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>-1</v>
+      </c>
+      <c r="S16">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="V16">
+        <v>20991</v>
+      </c>
+      <c r="W16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="3"/>
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="AC16">
+        <v>20991</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF16">
+        <v>-1</v>
+      </c>
+      <c r="AG16">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="4"/>
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="AJ16">
+        <v>20991</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="5"/>
+        <v>0.434285714285714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>87320</v>
+      </c>
+      <c r="B17" t="s">
+        <v>800</v>
+      </c>
+      <c r="C17" t="s">
+        <v>801</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.251428571428571</v>
+      </c>
+      <c r="H17">
+        <v>87320</v>
+      </c>
+      <c r="I17" t="s">
+        <v>800</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="O17">
+        <v>87320</v>
+      </c>
+      <c r="P17" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="V17">
+        <v>87320</v>
+      </c>
+      <c r="W17" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>87320</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AJ17">
+        <v>87320</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="5"/>
+        <v>0.251428571428571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>66622</v>
+      </c>
+      <c r="B18" t="s">
+        <v>800</v>
+      </c>
+      <c r="C18" t="s">
+        <v>801</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="H18">
+        <v>66622</v>
+      </c>
+      <c r="I18" t="s">
+        <v>800</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="O18">
+        <v>66622</v>
+      </c>
+      <c r="P18" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <v>-1</v>
+      </c>
+      <c r="S18">
+        <v>-0.4</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>-0.4</v>
+      </c>
+      <c r="V18">
+        <v>66622</v>
+      </c>
+      <c r="W18" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y18">
+        <v>-1</v>
+      </c>
+      <c r="Z18">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="3"/>
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AC18">
+        <v>66622</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>66622</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM18">
+        <v>-1</v>
+      </c>
+      <c r="AN18">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="5"/>
+        <v>-0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11201</v>
+      </c>
+      <c r="B19" t="s">
+        <v>800</v>
+      </c>
+      <c r="C19" t="s">
+        <v>801</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="H19">
+        <v>11201</v>
+      </c>
+      <c r="I19" t="s">
+        <v>800</v>
+      </c>
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>11201</v>
+      </c>
+      <c r="P19" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>-1</v>
+      </c>
+      <c r="S19">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="V19">
+        <v>11201</v>
+      </c>
+      <c r="W19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="3"/>
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="AC19">
+        <v>11201</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF19">
+        <v>-1</v>
+      </c>
+      <c r="AG19">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="4"/>
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="AJ19">
+        <v>11201</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>80107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>800</v>
+      </c>
+      <c r="C20" t="s">
+        <v>801</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0.8</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H20">
+        <v>80107</v>
+      </c>
+      <c r="I20" t="s">
+        <v>800</v>
+      </c>
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="O20">
+        <v>80107</v>
+      </c>
+      <c r="P20" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0.48</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>0.48</v>
+      </c>
+      <c r="V20">
+        <v>80107</v>
+      </c>
+      <c r="W20" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="3"/>
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AC20">
+        <v>80107</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>0.8</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="AJ20">
+        <v>80107</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="5"/>
+        <v>6.8571428571428603E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>26391</v>
+      </c>
+      <c r="B21" t="s">
+        <v>800</v>
+      </c>
+      <c r="C21" t="s">
+        <v>801</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>-0.4</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+      <c r="H21">
+        <v>26391</v>
+      </c>
+      <c r="I21" t="s">
+        <v>800</v>
+      </c>
+      <c r="J21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="O21">
+        <v>26391</v>
+      </c>
+      <c r="P21" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>-1</v>
+      </c>
+      <c r="S21">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="V21">
+        <v>26391</v>
+      </c>
+      <c r="W21" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="3"/>
+        <v>0.434285714285714</v>
+      </c>
+      <c r="AC21">
+        <v>26391</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="4"/>
+        <v>0.251428571428571</v>
+      </c>
+      <c r="AJ21">
+        <v>26391</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="5"/>
+        <v>0.38857142857142901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>80880</v>
+      </c>
+      <c r="B22" t="s">
+        <v>800</v>
+      </c>
+      <c r="C22" t="s">
+        <v>801</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="H22">
+        <v>80880</v>
+      </c>
+      <c r="I22" t="s">
+        <v>800</v>
+      </c>
+      <c r="J22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>-1</v>
+      </c>
+      <c r="L22">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="O22">
+        <v>80880</v>
+      </c>
+      <c r="P22" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="V22">
+        <v>80880</v>
+      </c>
+      <c r="W22" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="3"/>
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="AC22">
+        <v>80880</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF22">
+        <v>-1</v>
+      </c>
+      <c r="AG22">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="4"/>
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="AJ22">
+        <v>80880</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="5"/>
+        <v>0.29714285714285699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17172</v>
+      </c>
+      <c r="B23" t="s">
+        <v>800</v>
+      </c>
+      <c r="C23" t="s">
+        <v>801</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="H23">
+        <v>17172</v>
+      </c>
+      <c r="I23" t="s">
+        <v>800</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.48</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="O23">
+        <v>17172</v>
+      </c>
+      <c r="P23" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="V23">
+        <v>17172</v>
+      </c>
+      <c r="W23" t="s">
+        <v>6</v>
+      </c>
+      <c r="X23" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="3"/>
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="AC23">
+        <v>17172</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF23">
+        <v>-1</v>
+      </c>
+      <c r="AG23">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="4"/>
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="AJ23">
+        <v>17172</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>60432</v>
+      </c>
+      <c r="B24" t="s">
+        <v>800</v>
+      </c>
+      <c r="C24" t="s">
+        <v>801</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.251428571428571</v>
+      </c>
+      <c r="H24">
+        <v>60432</v>
+      </c>
+      <c r="I24" t="s">
+        <v>800</v>
+      </c>
+      <c r="J24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>60432</v>
+      </c>
+      <c r="P24" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="V24">
+        <v>60432</v>
+      </c>
+      <c r="W24" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y24">
+        <v>-1</v>
+      </c>
+      <c r="Z24">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="3"/>
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="AC24">
+        <v>60432</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="4"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AJ24">
+        <v>60432</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM24">
+        <v>-1</v>
+      </c>
+      <c r="AN24">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="5"/>
+        <v>-0.74285714285714299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>87727</v>
+      </c>
+      <c r="B25" t="s">
+        <v>800</v>
+      </c>
+      <c r="C25" t="s">
+        <v>801</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.434285714285714</v>
+      </c>
+      <c r="H25">
+        <v>87727</v>
+      </c>
+      <c r="I25" t="s">
+        <v>800</v>
+      </c>
+      <c r="J25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>87727</v>
+      </c>
+      <c r="P25" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25">
+        <v>-1</v>
+      </c>
+      <c r="S25">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="V25">
+        <v>87727</v>
+      </c>
+      <c r="W25" t="s">
+        <v>6</v>
+      </c>
+      <c r="X25" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="3"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AC25">
+        <v>87727</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF25">
+        <v>-1</v>
+      </c>
+      <c r="AG25">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="4"/>
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="AJ25">
+        <v>87727</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="5"/>
+        <v>0.434285714285714</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>800</v>
+      </c>
+      <c r="C26" t="s">
+        <v>801</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="H26">
+        <v>20111</v>
+      </c>
+      <c r="I26" t="s">
+        <v>800</v>
+      </c>
+      <c r="J26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="O26">
+        <v>20111</v>
+      </c>
+      <c r="P26" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>0.754285714285714</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>0.754285714285714</v>
+      </c>
+      <c r="V26">
+        <v>20111</v>
+      </c>
+      <c r="W26" t="s">
+        <v>6</v>
+      </c>
+      <c r="X26" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>0.8</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC26">
+        <v>20111</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF26">
+        <v>-1</v>
+      </c>
+      <c r="AG26">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="4"/>
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="AJ26">
+        <v>20111</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM26">
+        <v>-1</v>
+      </c>
+      <c r="AN26">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="5"/>
+        <v>-0.114285714285714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10880</v>
+      </c>
+      <c r="B27" t="s">
+        <v>800</v>
+      </c>
+      <c r="C27" t="s">
+        <v>801</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0.8</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H27">
+        <v>10880</v>
+      </c>
+      <c r="I27" t="s">
+        <v>800</v>
+      </c>
+      <c r="J27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <v>-1</v>
+      </c>
+      <c r="L27">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="O27">
+        <v>10880</v>
+      </c>
+      <c r="P27" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>10880</v>
+      </c>
+      <c r="W27" t="s">
+        <v>6</v>
+      </c>
+      <c r="X27" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>0.70857142857142896</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="3"/>
+        <v>0.70857142857142896</v>
+      </c>
+      <c r="AC27">
+        <v>10880</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
+        <v>0.8</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="AJ27">
+        <v>10880</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="5"/>
+        <v>6.8571428571428603E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>98172</v>
+      </c>
+      <c r="B28" t="s">
+        <v>800</v>
+      </c>
+      <c r="C28" t="s">
+        <v>801</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0.8</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H28">
+        <v>98172</v>
+      </c>
+      <c r="I28" t="s">
+        <v>800</v>
+      </c>
+      <c r="J28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="O28">
+        <v>98172</v>
+      </c>
+      <c r="P28" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>98172</v>
+      </c>
+      <c r="W28" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="3"/>
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="AC28">
+        <v>98172</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF28">
+        <v>-1</v>
+      </c>
+      <c r="AG28">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="4"/>
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="AJ28">
+        <v>98172</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM28">
+        <v>-1</v>
+      </c>
+      <c r="AN28">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="5"/>
+        <v>-0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10432</v>
+      </c>
+      <c r="B29" t="s">
+        <v>800</v>
+      </c>
+      <c r="C29" t="s">
+        <v>801</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>10432</v>
+      </c>
+      <c r="I29" t="s">
+        <v>800</v>
+      </c>
+      <c r="J29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="O29">
+        <v>10432</v>
+      </c>
+      <c r="P29" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>-1</v>
+      </c>
+      <c r="S29">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="2"/>
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="V29">
+        <v>10432</v>
+      </c>
+      <c r="W29" t="s">
+        <v>6</v>
+      </c>
+      <c r="X29" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y29">
+        <v>-1</v>
+      </c>
+      <c r="Z29">
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="3"/>
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="AC29">
+        <v>10432</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF29">
+        <v>-1</v>
+      </c>
+      <c r="AG29">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="4"/>
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="AJ29">
+        <v>10432</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>17727</v>
+      </c>
+      <c r="B30" t="s">
+        <v>800</v>
+      </c>
+      <c r="C30" t="s">
+        <v>801</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2.2857142857142899E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>2.2857142857142899E-2</v>
+      </c>
+      <c r="H30">
+        <v>17727</v>
+      </c>
+      <c r="I30" t="s">
+        <v>800</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>-1</v>
+      </c>
+      <c r="L30">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="O30">
+        <v>17727</v>
+      </c>
+      <c r="P30" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>0.66285714285714303</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="2"/>
+        <v>0.66285714285714303</v>
+      </c>
+      <c r="V30">
+        <v>17727</v>
+      </c>
+      <c r="W30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X30" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y30">
+        <v>-1</v>
+      </c>
+      <c r="Z30">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="3"/>
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AC30">
+        <v>17727</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF30">
+        <v>-1</v>
+      </c>
+      <c r="AG30">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="4"/>
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="AJ30">
+        <v>17727</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="5"/>
+        <v>0.114285714285714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10111</v>
+      </c>
+      <c r="B31" t="s">
+        <v>800</v>
+      </c>
+      <c r="C31" t="s">
+        <v>801</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="H31">
+        <v>10111</v>
+      </c>
+      <c r="I31" t="s">
+        <v>800</v>
+      </c>
+      <c r="J31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <v>-5.7142857142857197E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>-5.7142857142857197E-2</v>
+      </c>
+      <c r="O31">
+        <v>10111</v>
+      </c>
+      <c r="P31" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0.66285714285714303</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="2"/>
+        <v>0.66285714285714303</v>
+      </c>
+      <c r="V31">
+        <v>10111</v>
+      </c>
+      <c r="W31" t="s">
+        <v>6</v>
+      </c>
+      <c r="X31" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="3"/>
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="AC31">
+        <v>10111</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF31">
+        <v>-1</v>
+      </c>
+      <c r="AG31">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="4"/>
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="AJ31">
+        <v>10111</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="5"/>
+        <v>0.38857142857142901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>12345</v>
+      </c>
+      <c r="B32" t="s">
+        <v>800</v>
+      </c>
+      <c r="C32" t="s">
+        <v>801</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="H32">
+        <v>12345</v>
+      </c>
+      <c r="I32" t="s">
+        <v>800</v>
+      </c>
+      <c r="J32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>12345</v>
+      </c>
+      <c r="P32" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>0.70857142857142896</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="2"/>
+        <v>0.70857142857142896</v>
+      </c>
+      <c r="V32">
+        <v>12345</v>
+      </c>
+      <c r="W32" t="s">
+        <v>6</v>
+      </c>
+      <c r="X32" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>0.16</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="AC32">
+        <v>12345</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="4"/>
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="AJ32">
+        <v>12345</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM32">
+        <v>-1</v>
+      </c>
+      <c r="AN32">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="5"/>
+        <v>-0.17142857142857101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>54321</v>
+      </c>
+      <c r="B33" t="s">
+        <v>800</v>
+      </c>
+      <c r="C33" t="s">
+        <v>801</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0.16</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="H33">
+        <v>54321</v>
+      </c>
+      <c r="I33" t="s">
+        <v>800</v>
+      </c>
+      <c r="J33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <v>-1</v>
+      </c>
+      <c r="L33">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="O33">
+        <v>54321</v>
+      </c>
+      <c r="P33" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>6</v>
+      </c>
+      <c r="R33">
+        <v>-1</v>
+      </c>
+      <c r="S33">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="2"/>
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="V33">
+        <v>54321</v>
+      </c>
+      <c r="W33" t="s">
+        <v>6</v>
+      </c>
+      <c r="X33" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y33">
+        <v>-1</v>
+      </c>
+      <c r="Z33">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="3"/>
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AC33">
+        <v>54321</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF33">
+        <v>-1</v>
+      </c>
+      <c r="AG33">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="4"/>
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AJ33">
+        <v>54321</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="5"/>
+        <v>6.8571428571428603E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>67890</v>
+      </c>
+      <c r="B34" t="s">
+        <v>800</v>
+      </c>
+      <c r="C34" t="s">
+        <v>801</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0.8</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H34">
+        <v>67890</v>
+      </c>
+      <c r="I34" t="s">
+        <v>800</v>
+      </c>
+      <c r="J34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="O34">
+        <v>67890</v>
+      </c>
+      <c r="P34" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>6</v>
+      </c>
+      <c r="R34">
+        <v>-1</v>
+      </c>
+      <c r="S34">
+        <v>-5.7142857142857197E-2</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="2"/>
+        <v>-5.7142857142857197E-2</v>
+      </c>
+      <c r="V34">
+        <v>67890</v>
+      </c>
+      <c r="W34" t="s">
+        <v>6</v>
+      </c>
+      <c r="X34" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y34">
+        <v>-1</v>
+      </c>
+      <c r="Z34">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="3"/>
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="AC34">
+        <v>67890</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="4"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AJ34">
+        <v>67890</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM34">
+        <v>-1</v>
+      </c>
+      <c r="AN34">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="5"/>
+        <v>-0.22857142857142901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>19876</v>
+      </c>
+      <c r="B35" t="s">
+        <v>800</v>
+      </c>
+      <c r="C35" t="s">
+        <v>801</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="H35">
+        <v>19876</v>
+      </c>
+      <c r="I35" t="s">
+        <v>800</v>
+      </c>
+      <c r="J35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="O35">
+        <v>19876</v>
+      </c>
+      <c r="P35" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>19876</v>
+      </c>
+      <c r="W35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y35">
+        <v>-1</v>
+      </c>
+      <c r="Z35">
+        <v>-0.91428571428571404</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="3"/>
+        <v>-0.91428571428571404</v>
+      </c>
+      <c r="AC35">
+        <v>19876</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF35">
+        <v>-1</v>
+      </c>
+      <c r="AG35">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="4"/>
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AJ35">
+        <v>19876</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM35">
+        <v>-1</v>
+      </c>
+      <c r="AN35">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="5"/>
+        <v>-0.17142857142857101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>29292</v>
+      </c>
+      <c r="B36" t="s">
+        <v>800</v>
+      </c>
+      <c r="C36" t="s">
+        <v>801</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0.16</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="H36">
+        <v>29292</v>
+      </c>
+      <c r="I36" t="s">
+        <v>800</v>
+      </c>
+      <c r="J36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>29292</v>
+      </c>
+      <c r="P36" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="2"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="V36">
+        <v>29292</v>
+      </c>
+      <c r="W36" t="s">
+        <v>6</v>
+      </c>
+      <c r="X36" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="3"/>
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AC36">
+        <v>29292</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="4"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AJ36">
+        <v>29292</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>0.16</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="5"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>24680</v>
+      </c>
+      <c r="B37" t="s">
+        <v>800</v>
+      </c>
+      <c r="C37" t="s">
+        <v>801</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="H37">
+        <v>24680</v>
+      </c>
+      <c r="I37" t="s">
+        <v>800</v>
+      </c>
+      <c r="J37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>-1</v>
+      </c>
+      <c r="L37">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="O37">
+        <v>24680</v>
+      </c>
+      <c r="P37" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="2"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="V37">
+        <v>24680</v>
+      </c>
+      <c r="W37" t="s">
+        <v>6</v>
+      </c>
+      <c r="X37" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>24680</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF37">
+        <v>-1</v>
+      </c>
+      <c r="AG37">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="4"/>
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="AJ37">
+        <v>24680</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>0.66285714285714303</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="5"/>
+        <v>0.66285714285714303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>13579</v>
+      </c>
+      <c r="B38" t="s">
+        <v>800</v>
+      </c>
+      <c r="C38" t="s">
+        <v>801</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="H38">
+        <v>13579</v>
+      </c>
+      <c r="I38" t="s">
+        <v>800</v>
+      </c>
+      <c r="J38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="O38">
+        <v>13579</v>
+      </c>
+      <c r="P38" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="2"/>
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="V38">
+        <v>13579</v>
+      </c>
+      <c r="W38" t="s">
+        <v>6</v>
+      </c>
+      <c r="X38" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="3"/>
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AC38">
+        <v>13579</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF38">
+        <v>-1</v>
+      </c>
+      <c r="AG38">
+        <v>-0.91428571428571404</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="4"/>
+        <v>-0.91428571428571404</v>
+      </c>
+      <c r="AJ38">
+        <v>13579</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="5"/>
+        <v>0.38857142857142901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>15937</v>
+      </c>
+      <c r="B39" t="s">
+        <v>800</v>
+      </c>
+      <c r="C39" t="s">
+        <v>801</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0.8</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H39">
+        <v>15937</v>
+      </c>
+      <c r="I39" t="s">
+        <v>800</v>
+      </c>
+      <c r="J39" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>-1</v>
+      </c>
+      <c r="L39">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="O39">
+        <v>15937</v>
+      </c>
+      <c r="P39" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>-1</v>
+      </c>
+      <c r="S39">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="2"/>
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="V39">
+        <v>15937</v>
+      </c>
+      <c r="W39" t="s">
+        <v>6</v>
+      </c>
+      <c r="X39" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y39">
+        <v>-1</v>
+      </c>
+      <c r="Z39">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="3"/>
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AC39">
+        <v>15937</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AG39">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="4"/>
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="AJ39">
+        <v>15937</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" si="5"/>
+        <v>0.251428571428571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>24068</v>
+      </c>
+      <c r="B40" t="s">
+        <v>800</v>
+      </c>
+      <c r="C40" t="s">
+        <v>801</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="H40">
+        <v>24068</v>
+      </c>
+      <c r="I40" t="s">
+        <v>800</v>
+      </c>
+      <c r="J40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <v>-1</v>
+      </c>
+      <c r="L40">
+        <v>-0.8</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+      <c r="O40">
+        <v>24068</v>
+      </c>
+      <c r="P40" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>6</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="2"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="V40">
+        <v>24068</v>
+      </c>
+      <c r="W40" t="s">
+        <v>6</v>
+      </c>
+      <c r="X40" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="3"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AC40">
+        <v>24068</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF40">
+        <v>-1</v>
+      </c>
+      <c r="AG40">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="4"/>
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="AJ40">
+        <v>24068</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AO40">
+        <f t="shared" si="5"/>
+        <v>0.114285714285714</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>91357</v>
+      </c>
+      <c r="B41" t="s">
+        <v>800</v>
+      </c>
+      <c r="C41" t="s">
+        <v>801</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0.61714285714285699</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0.61714285714285699</v>
+      </c>
+      <c r="H41">
+        <v>91357</v>
+      </c>
+      <c r="I41" t="s">
+        <v>800</v>
+      </c>
+      <c r="J41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>-1</v>
+      </c>
+      <c r="L41">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="O41">
+        <v>91357</v>
+      </c>
+      <c r="P41" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <v>-1</v>
+      </c>
+      <c r="S41">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="2"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="V41">
+        <v>91357</v>
+      </c>
+      <c r="W41" t="s">
+        <v>6</v>
+      </c>
+      <c r="X41" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>0.8</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC41">
+        <v>91357</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>0.16</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="4"/>
+        <v>0.16</v>
+      </c>
+      <c r="AJ41">
+        <v>91357</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="5"/>
+        <v>0.434285714285714</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>93715</v>
+      </c>
+      <c r="B42" t="s">
+        <v>801</v>
+      </c>
+      <c r="C42" t="s">
+        <v>800</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0.48</v>
+      </c>
+      <c r="F42">
+        <f>-E42</f>
+        <v>-0.48</v>
+      </c>
+      <c r="H42">
+        <v>93715</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" t="s">
+        <v>800</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f>-L42</f>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>93715</v>
+      </c>
+      <c r="P42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>800</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="T42">
+        <f>-S42</f>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="V42">
+        <v>93715</v>
+      </c>
+      <c r="W42" t="s">
+        <v>801</v>
+      </c>
+      <c r="X42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>0.48</v>
+      </c>
+      <c r="AA42">
+        <f>-Z42</f>
+        <v>-0.48</v>
+      </c>
+      <c r="AC42">
+        <v>93715</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <f>-AG42</f>
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>93715</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM42">
+        <v>-1</v>
+      </c>
+      <c r="AN42">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="AO42">
+        <f>-AN42</f>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>62735</v>
+      </c>
+      <c r="B43" t="s">
+        <v>801</v>
+      </c>
+      <c r="C43" t="s">
+        <v>800</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0.48</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43:F81" si="6">-E43</f>
+        <v>-0.48</v>
+      </c>
+      <c r="H43">
+        <v>62735</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" t="s">
+        <v>800</v>
+      </c>
+      <c r="K43">
+        <v>-1</v>
+      </c>
+      <c r="L43">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43:M81" si="7">-L43</f>
+        <v>0.628571428571429</v>
+      </c>
+      <c r="O43">
+        <v>62735</v>
+      </c>
+      <c r="P43" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>800</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="T43">
+        <f t="shared" ref="T43:T81" si="8">-S43</f>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="V43">
+        <v>62735</v>
+      </c>
+      <c r="W43" t="s">
+        <v>801</v>
+      </c>
+      <c r="X43" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y43">
+        <v>-1</v>
+      </c>
+      <c r="Z43">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" ref="AA43:AA81" si="9">-Z43</f>
+        <v>0.74285714285714299</v>
+      </c>
+      <c r="AC43">
+        <v>62735</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
+      <c r="AG43">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" ref="AH43:AH81" si="10">-AG43</f>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="AJ43">
+        <v>62735</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM43">
+        <v>-1</v>
+      </c>
+      <c r="AN43">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="AO43">
+        <f t="shared" ref="AO43:AO81" si="11">-AN43</f>
+        <v>0.68571428571428605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42394</v>
+      </c>
+      <c r="B44" t="s">
+        <v>801</v>
+      </c>
+      <c r="C44" t="s">
+        <v>800</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0.16</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="6"/>
+        <v>-0.16</v>
+      </c>
+      <c r="H44">
+        <v>42394</v>
+      </c>
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" t="s">
+        <v>800</v>
+      </c>
+      <c r="K44">
+        <v>-1</v>
+      </c>
+      <c r="L44">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="O44">
+        <v>42394</v>
+      </c>
+      <c r="P44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>800</v>
+      </c>
+      <c r="R44">
+        <v>-1</v>
+      </c>
+      <c r="S44">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="8"/>
+        <v>0.628571428571429</v>
+      </c>
+      <c r="V44">
+        <v>42394</v>
+      </c>
+      <c r="W44" t="s">
+        <v>801</v>
+      </c>
+      <c r="X44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="9"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="AC44">
+        <v>42394</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF44">
+        <v>-1</v>
+      </c>
+      <c r="AG44">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="10"/>
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="AJ44">
+        <v>42394</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM44">
+        <v>-1</v>
+      </c>
+      <c r="AN44">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="11"/>
+        <v>0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>12312</v>
+      </c>
+      <c r="B45" t="s">
+        <v>801</v>
+      </c>
+      <c r="C45" t="s">
+        <v>800</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0.61714285714285699</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="6"/>
+        <v>-0.61714285714285699</v>
+      </c>
+      <c r="H45">
+        <v>12312</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" t="s">
+        <v>800</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>-0.52571428571428602</v>
+      </c>
+      <c r="O45">
+        <v>12312</v>
+      </c>
+      <c r="P45" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>800</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>12312</v>
+      </c>
+      <c r="W45" t="s">
+        <v>801</v>
+      </c>
+      <c r="X45" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="9"/>
+        <v>0.45714285714285702</v>
+      </c>
+      <c r="AC45">
+        <v>12312</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF45">
+        <v>1</v>
+      </c>
+      <c r="AG45">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="10"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AJ45">
+        <v>12312</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AO45">
+        <f t="shared" si="11"/>
+        <v>-0.114285714285714</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>50452</v>
+      </c>
+      <c r="B46" t="s">
+        <v>801</v>
+      </c>
+      <c r="C46" t="s">
+        <v>800</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="6"/>
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="H46">
+        <v>50452</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" t="s">
+        <v>800</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0.8</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="7"/>
+        <v>-0.8</v>
+      </c>
+      <c r="O46">
+        <v>50452</v>
+      </c>
+      <c r="P46" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>800</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="8"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="V46">
+        <v>50452</v>
+      </c>
+      <c r="W46" t="s">
+        <v>801</v>
+      </c>
+      <c r="X46" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="9"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AC46">
+        <v>50452</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF46">
+        <v>-1</v>
+      </c>
+      <c r="AG46">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="10"/>
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="AJ46">
+        <v>50452</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>22323</v>
+      </c>
+      <c r="B47" t="s">
+        <v>801</v>
+      </c>
+      <c r="C47" t="s">
+        <v>800</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="6"/>
+        <v>0.628571428571429</v>
+      </c>
+      <c r="H47">
+        <v>22323</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" t="s">
+        <v>800</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>-0.38857142857142901</v>
+      </c>
+      <c r="O47">
+        <v>22323</v>
+      </c>
+      <c r="P47" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>800</v>
+      </c>
+      <c r="R47">
+        <v>-1</v>
+      </c>
+      <c r="S47">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="8"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="V47">
+        <v>22323</v>
+      </c>
+      <c r="W47" t="s">
+        <v>801</v>
+      </c>
+      <c r="X47" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="9"/>
+        <v>-0.251428571428571</v>
+      </c>
+      <c r="AC47">
+        <v>22323</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF47">
+        <v>-1</v>
+      </c>
+      <c r="AG47">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="10"/>
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="AJ47">
+        <v>22323</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="11"/>
+        <v>-0.20571428571428599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>39123</v>
+      </c>
+      <c r="B48" t="s">
+        <v>801</v>
+      </c>
+      <c r="C48" t="s">
+        <v>800</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0.16</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
+        <v>-0.16</v>
+      </c>
+      <c r="H48">
+        <v>39123</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" t="s">
+        <v>800</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>-0.251428571428571</v>
+      </c>
+      <c r="O48">
+        <v>39123</v>
+      </c>
+      <c r="P48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>800</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="8"/>
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="V48">
+        <v>39123</v>
+      </c>
+      <c r="W48" t="s">
+        <v>801</v>
+      </c>
+      <c r="X48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="9"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AC48">
+        <v>39123</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF48">
+        <v>-1</v>
+      </c>
+      <c r="AG48">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="10"/>
+        <v>0.51428571428571401</v>
+      </c>
+      <c r="AJ48">
+        <v>39123</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM48">
+        <v>-1</v>
+      </c>
+      <c r="AN48">
+        <v>-0.8</v>
+      </c>
+      <c r="AO48">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>75675</v>
+      </c>
+      <c r="B49" t="s">
+        <v>801</v>
+      </c>
+      <c r="C49" t="s">
+        <v>800</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>75675</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>800</v>
+      </c>
+      <c r="K49">
+        <v>-1</v>
+      </c>
+      <c r="L49">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="7"/>
+        <v>0.45714285714285702</v>
+      </c>
+      <c r="O49">
+        <v>75675</v>
+      </c>
+      <c r="P49" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>800</v>
+      </c>
+      <c r="R49">
+        <v>-1</v>
+      </c>
+      <c r="S49">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="8"/>
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="V49">
+        <v>75675</v>
+      </c>
+      <c r="W49" t="s">
+        <v>801</v>
+      </c>
+      <c r="X49" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y49">
+        <v>-1</v>
+      </c>
+      <c r="Z49">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="9"/>
+        <v>0.628571428571429</v>
+      </c>
+      <c r="AC49">
+        <v>75675</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF49">
+        <v>1</v>
+      </c>
+      <c r="AG49">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="10"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="AJ49">
+        <v>75675</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM49">
+        <v>-1</v>
+      </c>
+      <c r="AN49">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="AO49">
+        <f t="shared" si="11"/>
+        <v>0.51428571428571401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12392</v>
+      </c>
+      <c r="B50" t="s">
+        <v>801</v>
+      </c>
+      <c r="C50" t="s">
+        <v>800</v>
+      </c>
+      <c r="D50">
+        <v>-1</v>
+      </c>
+      <c r="E50">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="6"/>
+        <v>0.68571428571428605</v>
+      </c>
+      <c r="H50">
+        <v>12392</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" t="s">
+        <v>800</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="7"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="O50">
+        <v>12392</v>
+      </c>
+      <c r="P50" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>800</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="8"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="V50">
+        <v>12392</v>
+      </c>
+      <c r="W50" t="s">
+        <v>801</v>
+      </c>
+      <c r="X50" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y50">
+        <v>-1</v>
+      </c>
+      <c r="Z50">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="9"/>
+        <v>0.51428571428571401</v>
+      </c>
+      <c r="AC50">
+        <v>12392</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF50">
+        <v>1</v>
+      </c>
+      <c r="AG50">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="10"/>
+        <v>-0.434285714285714</v>
+      </c>
+      <c r="AJ50">
+        <v>12392</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM50">
+        <v>-1</v>
+      </c>
+      <c r="AN50">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AO50">
+        <f t="shared" si="11"/>
+        <v>0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>11221</v>
+      </c>
+      <c r="B51" t="s">
+        <v>801</v>
+      </c>
+      <c r="C51" t="s">
+        <v>800</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>11221</v>
+      </c>
+      <c r="I51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" t="s">
+        <v>800</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="7"/>
+        <v>-0.251428571428571</v>
+      </c>
+      <c r="O51">
+        <v>11221</v>
+      </c>
+      <c r="P51" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>800</v>
+      </c>
+      <c r="R51">
+        <v>-1</v>
+      </c>
+      <c r="S51">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="8"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="V51">
+        <v>11221</v>
+      </c>
+      <c r="W51" t="s">
+        <v>801</v>
+      </c>
+      <c r="X51" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>11221</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF51">
+        <v>-1</v>
+      </c>
+      <c r="AG51">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="10"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="AJ51">
+        <v>11221</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM51">
+        <v>-1</v>
+      </c>
+      <c r="AN51">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="AO51">
+        <f t="shared" si="11"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>13200</v>
+      </c>
+      <c r="B52" t="s">
+        <v>801</v>
+      </c>
+      <c r="C52" t="s">
+        <v>800</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0.8</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="6"/>
+        <v>-0.8</v>
+      </c>
+      <c r="H52">
+        <v>13200</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" t="s">
+        <v>800</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="7"/>
+        <v>-0.38857142857142901</v>
+      </c>
+      <c r="O52">
+        <v>13200</v>
+      </c>
+      <c r="P52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>800</v>
+      </c>
+      <c r="R52">
+        <v>-1</v>
+      </c>
+      <c r="S52">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="8"/>
+        <v>0.628571428571429</v>
+      </c>
+      <c r="V52">
+        <v>13200</v>
+      </c>
+      <c r="W52" t="s">
+        <v>801</v>
+      </c>
+      <c r="X52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y52">
+        <v>-1</v>
+      </c>
+      <c r="Z52">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="9"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="AC52">
+        <v>13200</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>13200</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AO52">
+        <f t="shared" si="11"/>
+        <v>-0.114285714285714</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>99932</v>
+      </c>
+      <c r="B53" t="s">
+        <v>801</v>
+      </c>
+      <c r="C53" t="s">
+        <v>800</v>
+      </c>
+      <c r="D53">
+        <v>-1</v>
+      </c>
+      <c r="E53">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="6"/>
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="H53">
+        <v>99932</v>
+      </c>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" t="s">
+        <v>800</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="7"/>
+        <v>-0.38857142857142901</v>
+      </c>
+      <c r="O53">
+        <v>99932</v>
+      </c>
+      <c r="P53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>800</v>
+      </c>
+      <c r="R53">
+        <v>-1</v>
+      </c>
+      <c r="S53">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="8"/>
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="V53">
+        <v>99932</v>
+      </c>
+      <c r="W53" t="s">
+        <v>801</v>
+      </c>
+      <c r="X53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="9"/>
+        <v>0.51428571428571401</v>
+      </c>
+      <c r="AC53">
+        <v>99932</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF53">
+        <v>-1</v>
+      </c>
+      <c r="AG53">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="10"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AJ53">
+        <v>99932</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM53">
+        <v>-1</v>
+      </c>
+      <c r="AN53">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AO53">
+        <f t="shared" si="11"/>
+        <v>0.22857142857142901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>65651</v>
+      </c>
+      <c r="B54" t="s">
+        <v>801</v>
+      </c>
+      <c r="C54" t="s">
+        <v>800</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="6"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="H54">
+        <v>65651</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" t="s">
+        <v>800</v>
+      </c>
+      <c r="K54">
+        <v>-1</v>
+      </c>
+      <c r="L54">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="7"/>
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="O54">
+        <v>65651</v>
+      </c>
+      <c r="P54" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>800</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="8"/>
+        <v>-0.251428571428571</v>
+      </c>
+      <c r="V54">
+        <v>65651</v>
+      </c>
+      <c r="W54" t="s">
+        <v>801</v>
+      </c>
+      <c r="X54" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>65651</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AG54">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="10"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AJ54">
+        <v>65651</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM54">
+        <v>-1</v>
+      </c>
+      <c r="AN54">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AO54">
+        <f t="shared" si="11"/>
+        <v>0.17142857142857101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>83737</v>
+      </c>
+      <c r="B55" t="s">
+        <v>801</v>
+      </c>
+      <c r="C55" t="s">
+        <v>800</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="6"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="H55">
+        <v>83737</v>
+      </c>
+      <c r="I55" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" t="s">
+        <v>800</v>
+      </c>
+      <c r="K55">
+        <v>-1</v>
+      </c>
+      <c r="L55">
+        <v>-0.4</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="O55">
+        <v>83737</v>
+      </c>
+      <c r="P55" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>800</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>83737</v>
+      </c>
+      <c r="W55" t="s">
+        <v>801</v>
+      </c>
+      <c r="X55" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y55">
+        <v>-1</v>
+      </c>
+      <c r="Z55">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="9"/>
+        <v>0.45714285714285702</v>
+      </c>
+      <c r="AC55">
+        <v>83737</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+      <c r="AG55">
+        <v>0.16</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="10"/>
+        <v>-0.16</v>
+      </c>
+      <c r="AJ55">
+        <v>83737</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM55">
+        <v>-1</v>
+      </c>
+      <c r="AN55">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AO55">
+        <f t="shared" si="11"/>
+        <v>0.17142857142857101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>20991</v>
+      </c>
+      <c r="B56" t="s">
+        <v>801</v>
+      </c>
+      <c r="C56" t="s">
+        <v>800</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+      <c r="E56">
+        <v>-0.85714285714285698</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="6"/>
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="H56">
+        <v>20991</v>
+      </c>
+      <c r="I56" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" t="s">
+        <v>800</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>20991</v>
+      </c>
+      <c r="P56" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>800</v>
+      </c>
+      <c r="R56">
+        <v>-1</v>
+      </c>
+      <c r="S56">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="8"/>
+        <v>0.22857142857142901</v>
+      </c>
+      <c r="V56">
+        <v>20991</v>
+      </c>
+      <c r="W56" t="s">
+        <v>801</v>
+      </c>
+      <c r="X56" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y56">
+        <v>-1</v>
+      </c>
+      <c r="Z56">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="9"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="AC56">
+        <v>20991</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF56">
+        <v>1</v>
+      </c>
+      <c r="AG56">
+        <v>0.8</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="10"/>
+        <v>-0.8</v>
+      </c>
+      <c r="AJ56">
+        <v>20991</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>87320</v>
+      </c>
+      <c r="B57" t="s">
+        <v>801</v>
+      </c>
+      <c r="C57" t="s">
+        <v>800</v>
+      </c>
+      <c r="D57">
+        <v>-1</v>
+      </c>
+      <c r="E57">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="6"/>
+        <v>0.45714285714285702</v>
+      </c>
+      <c r="H57">
+        <v>87320</v>
+      </c>
+      <c r="I57" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" t="s">
+        <v>800</v>
+      </c>
+      <c r="K57">
+        <v>-1</v>
+      </c>
+      <c r="L57">
+        <v>-0.4</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="O57">
+        <v>87320</v>
+      </c>
+      <c r="P57" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>800</v>
+      </c>
+      <c r="R57">
+        <v>-1</v>
+      </c>
+      <c r="S57">
+        <v>-0.8</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="V57">
+        <v>87320</v>
+      </c>
+      <c r="W57" t="s">
+        <v>801</v>
+      </c>
+      <c r="X57" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>87320</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="AH57">
+        <f t="shared" si="10"/>
+        <v>-0.29714285714285699</v>
+      </c>
+      <c r="AJ57">
+        <v>87320</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM57">
+        <v>-1</v>
+      </c>
+      <c r="AN57">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="AO57">
+        <f t="shared" si="11"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>66622</v>
+      </c>
+      <c r="B58" t="s">
+        <v>801</v>
+      </c>
+      <c r="C58" t="s">
+        <v>800</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="6"/>
+        <v>-0.52571428571428602</v>
+      </c>
+      <c r="H58">
+        <v>66622</v>
+      </c>
+      <c r="I58" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" t="s">
+        <v>800</v>
+      </c>
+      <c r="K58">
+        <v>-1</v>
+      </c>
+      <c r="L58">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="7"/>
+        <v>0.22857142857142901</v>
+      </c>
+      <c r="O58">
+        <v>66622</v>
+      </c>
+      <c r="P58" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>800</v>
+      </c>
+      <c r="R58">
+        <v>-1</v>
+      </c>
+      <c r="S58">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="8"/>
+        <v>0.22857142857142901</v>
+      </c>
+      <c r="V58">
+        <v>66622</v>
+      </c>
+      <c r="W58" t="s">
+        <v>801</v>
+      </c>
+      <c r="X58" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="9"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AC58">
+        <v>66622</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF58">
+        <v>1</v>
+      </c>
+      <c r="AG58">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="AH58">
+        <f t="shared" si="10"/>
+        <v>-0.38857142857142901</v>
+      </c>
+      <c r="AJ58">
+        <v>66622</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>0.16</v>
+      </c>
+      <c r="AO58">
+        <f t="shared" si="11"/>
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>11201</v>
+      </c>
+      <c r="B59" t="s">
+        <v>801</v>
+      </c>
+      <c r="C59" t="s">
+        <v>800</v>
+      </c>
+      <c r="D59">
+        <v>-1</v>
+      </c>
+      <c r="E59">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="6"/>
+        <v>0.74285714285714299</v>
+      </c>
+      <c r="H59">
+        <v>11201</v>
+      </c>
+      <c r="I59" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" t="s">
+        <v>800</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0.61714285714285699</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="7"/>
+        <v>-0.61714285714285699</v>
+      </c>
+      <c r="O59">
+        <v>11201</v>
+      </c>
+      <c r="P59" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>800</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>11201</v>
+      </c>
+      <c r="W59" t="s">
+        <v>801</v>
+      </c>
+      <c r="X59" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>11201</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF59">
+        <v>-1</v>
+      </c>
+      <c r="AG59">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="10"/>
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="AJ59">
+        <v>11201</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="AO59">
+        <f t="shared" si="11"/>
+        <v>-0.251428571428571</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>80107</v>
+      </c>
+      <c r="B60" t="s">
+        <v>801</v>
+      </c>
+      <c r="C60" t="s">
+        <v>800</v>
+      </c>
+      <c r="D60">
+        <v>-1</v>
+      </c>
+      <c r="E60">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="6"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="H60">
+        <v>80107</v>
+      </c>
+      <c r="I60" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" t="s">
+        <v>800</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="7"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="O60">
+        <v>80107</v>
+      </c>
+      <c r="P60" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>800</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>0.8</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="8"/>
+        <v>-0.8</v>
+      </c>
+      <c r="V60">
+        <v>80107</v>
+      </c>
+      <c r="W60" t="s">
+        <v>801</v>
+      </c>
+      <c r="X60" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="9"/>
+        <v>-0.434285714285714</v>
+      </c>
+      <c r="AC60">
+        <v>80107</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF60">
+        <v>-1</v>
+      </c>
+      <c r="AG60">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AH60">
+        <f t="shared" si="10"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AJ60">
+        <v>80107</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM60">
+        <v>-1</v>
+      </c>
+      <c r="AN60">
+        <v>-0.4</v>
+      </c>
+      <c r="AO60">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>26391</v>
+      </c>
+      <c r="B61" t="s">
+        <v>801</v>
+      </c>
+      <c r="C61" t="s">
+        <v>800</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="6"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="H61">
+        <v>26391</v>
+      </c>
+      <c r="I61" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" t="s">
+        <v>800</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="7"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="O61">
+        <v>26391</v>
+      </c>
+      <c r="P61" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>800</v>
+      </c>
+      <c r="R61">
+        <v>-1</v>
+      </c>
+      <c r="S61">
+        <v>-0.91428571428571404</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="8"/>
+        <v>0.91428571428571404</v>
+      </c>
+      <c r="V61">
+        <v>26391</v>
+      </c>
+      <c r="W61" t="s">
+        <v>801</v>
+      </c>
+      <c r="X61" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>26391</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AG61">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AH61">
+        <f t="shared" si="10"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AJ61">
+        <v>26391</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AO61">
+        <f t="shared" si="11"/>
+        <v>-0.114285714285714</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>80880</v>
+      </c>
+      <c r="B62" t="s">
+        <v>801</v>
+      </c>
+      <c r="C62" t="s">
+        <v>800</v>
+      </c>
+      <c r="D62">
+        <v>-1</v>
+      </c>
+      <c r="E62">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="6"/>
+        <v>0.22857142857142901</v>
+      </c>
+      <c r="H62">
+        <v>80880</v>
+      </c>
+      <c r="I62" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" t="s">
+        <v>800</v>
+      </c>
+      <c r="K62">
+        <v>-1</v>
+      </c>
+      <c r="L62">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="7"/>
+        <v>0.628571428571429</v>
+      </c>
+      <c r="O62">
+        <v>80880</v>
+      </c>
+      <c r="P62" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>800</v>
+      </c>
+      <c r="R62">
+        <v>-1</v>
+      </c>
+      <c r="S62">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="8"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="V62">
+        <v>80880</v>
+      </c>
+      <c r="W62" t="s">
+        <v>801</v>
+      </c>
+      <c r="X62" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="9"/>
+        <v>-0.434285714285714</v>
+      </c>
+      <c r="AC62">
+        <v>80880</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF62">
+        <v>-1</v>
+      </c>
+      <c r="AG62">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="AH62">
+        <f t="shared" si="10"/>
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="AJ62">
+        <v>80880</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM62">
+        <v>-1</v>
+      </c>
+      <c r="AN62">
+        <v>-0.4</v>
+      </c>
+      <c r="AO62">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>17172</v>
+      </c>
+      <c r="B63" t="s">
+        <v>801</v>
+      </c>
+      <c r="C63" t="s">
+        <v>800</v>
+      </c>
+      <c r="D63">
+        <v>-1</v>
+      </c>
+      <c r="E63">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="6"/>
+        <v>0.45714285714285702</v>
+      </c>
+      <c r="H63">
+        <v>17172</v>
+      </c>
+      <c r="I63" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" t="s">
+        <v>800</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0.8</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="7"/>
+        <v>-0.8</v>
+      </c>
+      <c r="O63">
+        <v>17172</v>
+      </c>
+      <c r="P63" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>800</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="8"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="V63">
+        <v>17172</v>
+      </c>
+      <c r="W63" t="s">
+        <v>801</v>
+      </c>
+      <c r="X63" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="9"/>
+        <v>0.628571428571429</v>
+      </c>
+      <c r="AC63">
+        <v>17172</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF63">
+        <v>1</v>
+      </c>
+      <c r="AG63">
+        <v>0.16</v>
+      </c>
+      <c r="AH63">
+        <f t="shared" si="10"/>
+        <v>-0.16</v>
+      </c>
+      <c r="AJ63">
+        <v>17172</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="AO63">
+        <f t="shared" si="11"/>
+        <v>-0.251428571428571</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>60432</v>
+      </c>
+      <c r="B64" t="s">
+        <v>801</v>
+      </c>
+      <c r="C64" t="s">
+        <v>800</v>
+      </c>
+      <c r="D64">
+        <v>-1</v>
+      </c>
+      <c r="E64">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="6"/>
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="H64">
+        <v>60432</v>
+      </c>
+      <c r="I64" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" t="s">
+        <v>800</v>
+      </c>
+      <c r="K64">
+        <v>-1</v>
+      </c>
+      <c r="L64">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="7"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="O64">
+        <v>60432</v>
+      </c>
+      <c r="P64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>800</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>0.8</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="8"/>
+        <v>-0.8</v>
+      </c>
+      <c r="V64">
+        <v>60432</v>
+      </c>
+      <c r="W64" t="s">
+        <v>801</v>
+      </c>
+      <c r="X64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="9"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="AC64">
+        <v>60432</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF64">
+        <v>-1</v>
+      </c>
+      <c r="AG64">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AH64">
+        <f t="shared" si="10"/>
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="AJ64">
+        <v>60432</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM64">
+        <v>-1</v>
+      </c>
+      <c r="AN64">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AO64">
+        <f t="shared" si="11"/>
+        <v>0.114285714285714</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>87727</v>
+      </c>
+      <c r="B65" t="s">
+        <v>801</v>
+      </c>
+      <c r="C65" t="s">
+        <v>800</v>
+      </c>
+      <c r="D65">
+        <v>-1</v>
+      </c>
+      <c r="E65">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="6"/>
+        <v>0.22857142857142901</v>
+      </c>
+      <c r="H65">
+        <v>87727</v>
+      </c>
+      <c r="I65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65" t="s">
+        <v>800</v>
+      </c>
+      <c r="K65">
+        <v>-1</v>
+      </c>
+      <c r="L65">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="7"/>
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="O65">
+        <v>87727</v>
+      </c>
+      <c r="P65" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>800</v>
+      </c>
+      <c r="R65">
+        <v>-1</v>
+      </c>
+      <c r="S65">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="8"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="V65">
+        <v>87727</v>
+      </c>
+      <c r="W65" t="s">
+        <v>801</v>
+      </c>
+      <c r="X65" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y65">
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="9"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="AC65">
+        <v>87727</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF65">
+        <v>1</v>
+      </c>
+      <c r="AG65">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="AH65">
+        <f t="shared" si="10"/>
+        <v>-0.434285714285714</v>
+      </c>
+      <c r="AJ65">
+        <v>87727</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM65">
+        <v>-1</v>
+      </c>
+      <c r="AN65">
+        <v>-0.91428571428571404</v>
+      </c>
+      <c r="AO65">
+        <f t="shared" si="11"/>
+        <v>0.91428571428571404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>20111</v>
+      </c>
+      <c r="B66" t="s">
+        <v>801</v>
+      </c>
+      <c r="C66" t="s">
+        <v>800</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0.16</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="6"/>
+        <v>-0.16</v>
+      </c>
+      <c r="H66">
+        <v>20111</v>
+      </c>
+      <c r="I66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66" t="s">
+        <v>800</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="7"/>
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="O66">
+        <v>20111</v>
+      </c>
+      <c r="P66" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>800</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="8"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="V66">
+        <v>20111</v>
+      </c>
+      <c r="W66" t="s">
+        <v>801</v>
+      </c>
+      <c r="X66" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="9"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AC66">
+        <v>20111</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF66">
+        <v>1</v>
+      </c>
+      <c r="AG66">
+        <v>0.16</v>
+      </c>
+      <c r="AH66">
+        <f t="shared" si="10"/>
+        <v>-0.16</v>
+      </c>
+      <c r="AJ66">
+        <v>20111</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>2.2857142857142899E-2</v>
+      </c>
+      <c r="AO66">
+        <f t="shared" si="11"/>
+        <v>-2.2857142857142899E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>10880</v>
+      </c>
+      <c r="B67" t="s">
+        <v>801</v>
+      </c>
+      <c r="C67" t="s">
+        <v>800</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="6"/>
+        <v>-0.29714285714285699</v>
+      </c>
+      <c r="H67">
+        <v>10880</v>
+      </c>
+      <c r="I67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" t="s">
+        <v>800</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="7"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="O67">
+        <v>10880</v>
+      </c>
+      <c r="P67" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>800</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="8"/>
+        <v>-0.52571428571428602</v>
+      </c>
+      <c r="V67">
+        <v>10880</v>
+      </c>
+      <c r="W67" t="s">
+        <v>801</v>
+      </c>
+      <c r="X67" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y67">
+        <v>-1</v>
+      </c>
+      <c r="Z67">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="9"/>
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="AC67">
+        <v>10880</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF67">
+        <v>1</v>
+      </c>
+      <c r="AG67">
+        <v>0.8</v>
+      </c>
+      <c r="AH67">
+        <f t="shared" si="10"/>
+        <v>-0.8</v>
+      </c>
+      <c r="AJ67">
+        <v>10880</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM67">
+        <v>-1</v>
+      </c>
+      <c r="AN67">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AO67">
+        <f t="shared" si="11"/>
+        <v>0.22857142857142901</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>98172</v>
+      </c>
+      <c r="B68" t="s">
+        <v>801</v>
+      </c>
+      <c r="C68" t="s">
+        <v>800</v>
+      </c>
+      <c r="D68">
+        <v>-1</v>
+      </c>
+      <c r="E68">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="6"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="H68">
+        <v>98172</v>
+      </c>
+      <c r="I68" t="s">
+        <v>7</v>
+      </c>
+      <c r="J68" t="s">
+        <v>800</v>
+      </c>
+      <c r="K68">
+        <v>-1</v>
+      </c>
+      <c r="L68">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="7"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="O68">
+        <v>98172</v>
+      </c>
+      <c r="P68" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>800</v>
+      </c>
+      <c r="R68">
+        <v>-1</v>
+      </c>
+      <c r="S68">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="8"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="V68">
+        <v>98172</v>
+      </c>
+      <c r="W68" t="s">
+        <v>801</v>
+      </c>
+      <c r="X68" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>98172</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
+      <c r="AG68">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="AH68">
+        <f t="shared" si="10"/>
+        <v>-0.29714285714285699</v>
+      </c>
+      <c r="AJ68">
+        <v>98172</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM68">
+        <v>-1</v>
+      </c>
+      <c r="AN68">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AO68">
+        <f t="shared" si="11"/>
+        <v>0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>10432</v>
+      </c>
+      <c r="B69" t="s">
+        <v>801</v>
+      </c>
+      <c r="C69" t="s">
+        <v>800</v>
+      </c>
+      <c r="D69">
+        <v>-1</v>
+      </c>
+      <c r="E69">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="6"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="H69">
+        <v>10432</v>
+      </c>
+      <c r="I69" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69" t="s">
+        <v>800</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0.52571428571428602</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="7"/>
+        <v>-0.52571428571428602</v>
+      </c>
+      <c r="O69">
+        <v>10432</v>
+      </c>
+      <c r="P69" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>800</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>10432</v>
+      </c>
+      <c r="W69" t="s">
+        <v>801</v>
+      </c>
+      <c r="X69" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="9"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AC69">
+        <v>10432</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
+      <c r="AG69">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="AH69">
+        <f t="shared" si="10"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="AJ69">
+        <v>10432</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM69">
+        <v>-1</v>
+      </c>
+      <c r="AN69">
+        <v>-5.7142857142857197E-2</v>
+      </c>
+      <c r="AO69">
+        <f t="shared" si="11"/>
+        <v>5.7142857142857197E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>17727</v>
+      </c>
+      <c r="B70" t="s">
+        <v>801</v>
+      </c>
+      <c r="C70" t="s">
+        <v>800</v>
+      </c>
+      <c r="D70">
+        <v>-1</v>
+      </c>
+      <c r="E70">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="6"/>
+        <v>0.68571428571428605</v>
+      </c>
+      <c r="H70">
+        <v>17727</v>
+      </c>
+      <c r="I70" t="s">
+        <v>7</v>
+      </c>
+      <c r="J70" t="s">
+        <v>800</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="7"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="O70">
+        <v>17727</v>
+      </c>
+      <c r="P70" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>800</v>
+      </c>
+      <c r="R70">
+        <v>-1</v>
+      </c>
+      <c r="S70">
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="8"/>
+        <v>0.74285714285714299</v>
+      </c>
+      <c r="V70">
+        <v>17727</v>
+      </c>
+      <c r="W70" t="s">
+        <v>801</v>
+      </c>
+      <c r="X70" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>17727</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF70">
+        <v>-1</v>
+      </c>
+      <c r="AG70">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AH70">
+        <f t="shared" si="10"/>
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="AJ70">
+        <v>17727</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10111</v>
+      </c>
+      <c r="B71" t="s">
+        <v>801</v>
+      </c>
+      <c r="C71" t="s">
+        <v>800</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="6"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="H71">
+        <v>10111</v>
+      </c>
+      <c r="I71" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" t="s">
+        <v>800</v>
+      </c>
+      <c r="K71">
+        <v>-1</v>
+      </c>
+      <c r="L71">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="7"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="O71">
+        <v>10111</v>
+      </c>
+      <c r="P71" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>800</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="8"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="V71">
+        <v>10111</v>
+      </c>
+      <c r="W71" t="s">
+        <v>801</v>
+      </c>
+      <c r="X71" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y71">
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <v>0.48</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="9"/>
+        <v>-0.48</v>
+      </c>
+      <c r="AC71">
+        <v>10111</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF71">
+        <v>1</v>
+      </c>
+      <c r="AG71">
+        <v>0.61714285714285699</v>
+      </c>
+      <c r="AH71">
+        <f t="shared" si="10"/>
+        <v>-0.61714285714285699</v>
+      </c>
+      <c r="AJ71">
+        <v>10111</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM71">
+        <v>-1</v>
+      </c>
+      <c r="AN71">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AO71">
+        <f t="shared" si="11"/>
+        <v>0.22857142857142901</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>12345</v>
+      </c>
+      <c r="B72" t="s">
+        <v>801</v>
+      </c>
+      <c r="C72" t="s">
+        <v>800</v>
+      </c>
+      <c r="D72">
+        <v>-1</v>
+      </c>
+      <c r="E72">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="6"/>
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="H72">
+        <v>12345</v>
+      </c>
+      <c r="I72" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" t="s">
+        <v>800</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0.29714285714285699</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="7"/>
+        <v>-0.29714285714285699</v>
+      </c>
+      <c r="O72">
+        <v>12345</v>
+      </c>
+      <c r="P72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>800</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>0.66285714285714303</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="8"/>
+        <v>-0.66285714285714303</v>
+      </c>
+      <c r="V72">
+        <v>12345</v>
+      </c>
+      <c r="W72" t="s">
+        <v>801</v>
+      </c>
+      <c r="X72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
+        <v>-0.4</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC72">
+        <v>12345</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>12345</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AO72">
+        <f t="shared" si="11"/>
+        <v>-0.114285714285714</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>54321</v>
+      </c>
+      <c r="B73" t="s">
+        <v>801</v>
+      </c>
+      <c r="C73" t="s">
+        <v>800</v>
+      </c>
+      <c r="D73">
+        <v>-1</v>
+      </c>
+      <c r="E73">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="6"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="H73">
+        <v>54321</v>
+      </c>
+      <c r="I73" t="s">
+        <v>7</v>
+      </c>
+      <c r="J73" t="s">
+        <v>800</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="7"/>
+        <v>-0.38857142857142901</v>
+      </c>
+      <c r="O73">
+        <v>54321</v>
+      </c>
+      <c r="P73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>800</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>6.8571428571428603E-2</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="8"/>
+        <v>-6.8571428571428603E-2</v>
+      </c>
+      <c r="V73">
+        <v>54321</v>
+      </c>
+      <c r="W73" t="s">
+        <v>801</v>
+      </c>
+      <c r="X73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="9"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="AC73">
+        <v>54321</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF73">
+        <v>1</v>
+      </c>
+      <c r="AG73">
+        <v>0.8</v>
+      </c>
+      <c r="AH73">
+        <f t="shared" si="10"/>
+        <v>-0.8</v>
+      </c>
+      <c r="AJ73">
+        <v>54321</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM73">
+        <v>-1</v>
+      </c>
+      <c r="AN73">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AO73">
+        <f t="shared" si="11"/>
+        <v>0.22857142857142901</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>67890</v>
+      </c>
+      <c r="B74" t="s">
+        <v>801</v>
+      </c>
+      <c r="C74" t="s">
+        <v>800</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="6"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="H74">
+        <v>67890</v>
+      </c>
+      <c r="I74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74" t="s">
+        <v>800</v>
+      </c>
+      <c r="K74">
+        <v>-1</v>
+      </c>
+      <c r="L74">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="7"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="O74">
+        <v>67890</v>
+      </c>
+      <c r="P74" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>800</v>
+      </c>
+      <c r="R74">
+        <v>-1</v>
+      </c>
+      <c r="S74">
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="8"/>
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="V74">
+        <v>67890</v>
+      </c>
+      <c r="W74" t="s">
+        <v>801</v>
+      </c>
+      <c r="X74" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y74">
+        <v>1</v>
+      </c>
+      <c r="Z74">
+        <v>0.754285714285714</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="9"/>
+        <v>-0.754285714285714</v>
+      </c>
+      <c r="AC74">
+        <v>67890</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF74">
+        <v>1</v>
+      </c>
+      <c r="AG74">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="AH74">
+        <f t="shared" si="10"/>
+        <v>-0.434285714285714</v>
+      </c>
+      <c r="AJ74">
+        <v>67890</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="AO74">
+        <f t="shared" si="11"/>
+        <v>-0.251428571428571</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>19876</v>
+      </c>
+      <c r="B75" t="s">
+        <v>801</v>
+      </c>
+      <c r="C75" t="s">
+        <v>800</v>
+      </c>
+      <c r="D75">
+        <v>-1</v>
+      </c>
+      <c r="E75">
+        <v>-0.68571428571428605</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="6"/>
+        <v>0.68571428571428605</v>
+      </c>
+      <c r="H75">
+        <v>19876</v>
+      </c>
+      <c r="I75" t="s">
+        <v>7</v>
+      </c>
+      <c r="J75" t="s">
+        <v>800</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="7"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="O75">
+        <v>19876</v>
+      </c>
+      <c r="P75" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>800</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="8"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="V75">
+        <v>19876</v>
+      </c>
+      <c r="W75" t="s">
+        <v>801</v>
+      </c>
+      <c r="X75" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y75">
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="9"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="AC75">
+        <v>19876</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF75">
+        <v>1</v>
+      </c>
+      <c r="AG75">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AH75">
+        <f t="shared" si="10"/>
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AJ75">
+        <v>19876</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM75">
+        <v>-1</v>
+      </c>
+      <c r="AN75">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AO75">
+        <f t="shared" si="11"/>
+        <v>0.22857142857142901</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>29292</v>
+      </c>
+      <c r="B76" t="s">
+        <v>801</v>
+      </c>
+      <c r="C76" t="s">
+        <v>800</v>
+      </c>
+      <c r="D76">
+        <v>-1</v>
+      </c>
+      <c r="E76">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="6"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="H76">
+        <v>29292</v>
+      </c>
+      <c r="I76" t="s">
+        <v>7</v>
+      </c>
+      <c r="J76" t="s">
+        <v>800</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>29292</v>
+      </c>
+      <c r="P76" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>800</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>0.57142857142857195</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="8"/>
+        <v>-0.57142857142857195</v>
+      </c>
+      <c r="V76">
+        <v>29292</v>
+      </c>
+      <c r="W76" t="s">
+        <v>801</v>
+      </c>
+      <c r="X76" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y76">
+        <v>-1</v>
+      </c>
+      <c r="Z76">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="9"/>
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="AC76">
+        <v>29292</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF76">
+        <v>1</v>
+      </c>
+      <c r="AG76">
+        <v>0.38857142857142901</v>
+      </c>
+      <c r="AH76">
+        <f t="shared" si="10"/>
+        <v>-0.38857142857142901</v>
+      </c>
+      <c r="AJ76">
+        <v>29292</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM76">
+        <v>-1</v>
+      </c>
+      <c r="AN76">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="AO76">
+        <f t="shared" si="11"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>24680</v>
+      </c>
+      <c r="B77" t="s">
+        <v>801</v>
+      </c>
+      <c r="C77" t="s">
+        <v>800</v>
+      </c>
+      <c r="D77">
+        <v>-1</v>
+      </c>
+      <c r="E77">
+        <v>-0.51428571428571401</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="6"/>
+        <v>0.51428571428571401</v>
+      </c>
+      <c r="H77">
+        <v>24680</v>
+      </c>
+      <c r="I77" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" t="s">
+        <v>800</v>
+      </c>
+      <c r="K77">
+        <v>-1</v>
+      </c>
+      <c r="L77">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="7"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="O77">
+        <v>24680</v>
+      </c>
+      <c r="P77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>800</v>
+      </c>
+      <c r="R77">
+        <v>-1</v>
+      </c>
+      <c r="S77">
+        <v>-5.7142857142857197E-2</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="8"/>
+        <v>5.7142857142857197E-2</v>
+      </c>
+      <c r="V77">
+        <v>24680</v>
+      </c>
+      <c r="W77" t="s">
+        <v>801</v>
+      </c>
+      <c r="X77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y77">
+        <v>-1</v>
+      </c>
+      <c r="Z77">
+        <v>-0.8</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC77">
+        <v>24680</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF77">
+        <v>-1</v>
+      </c>
+      <c r="AG77">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="AH77">
+        <f t="shared" si="10"/>
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="AJ77">
+        <v>24680</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="AO77">
+        <f t="shared" si="11"/>
+        <v>-0.251428571428571</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>13579</v>
+      </c>
+      <c r="B78" t="s">
+        <v>801</v>
+      </c>
+      <c r="C78" t="s">
+        <v>800</v>
+      </c>
+      <c r="D78">
+        <v>-1</v>
+      </c>
+      <c r="E78">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="6"/>
+        <v>0.22857142857142901</v>
+      </c>
+      <c r="H78">
+        <v>13579</v>
+      </c>
+      <c r="I78" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" t="s">
+        <v>800</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>13579</v>
+      </c>
+      <c r="P78" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>800</v>
+      </c>
+      <c r="R78">
+        <v>-1</v>
+      </c>
+      <c r="S78">
+        <v>-0.91428571428571404</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="8"/>
+        <v>0.91428571428571404</v>
+      </c>
+      <c r="V78">
+        <v>13579</v>
+      </c>
+      <c r="W78" t="s">
+        <v>801</v>
+      </c>
+      <c r="X78" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y78">
+        <v>1</v>
+      </c>
+      <c r="Z78">
+        <v>0.66285714285714303</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="9"/>
+        <v>-0.66285714285714303</v>
+      </c>
+      <c r="AC78">
+        <v>13579</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF78">
+        <v>1</v>
+      </c>
+      <c r="AG78">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="AH78">
+        <f t="shared" si="10"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="AJ78">
+        <v>13579</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM78">
+        <v>-1</v>
+      </c>
+      <c r="AN78">
+        <v>-0.57142857142857095</v>
+      </c>
+      <c r="AO78">
+        <f t="shared" si="11"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>15937</v>
+      </c>
+      <c r="B79" t="s">
+        <v>801</v>
+      </c>
+      <c r="C79" t="s">
+        <v>800</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>15937</v>
+      </c>
+      <c r="I79" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79" t="s">
+        <v>800</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0.251428571428571</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="7"/>
+        <v>-0.251428571428571</v>
+      </c>
+      <c r="O79">
+        <v>15937</v>
+      </c>
+      <c r="P79" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>800</v>
+      </c>
+      <c r="R79">
+        <v>-1</v>
+      </c>
+      <c r="S79">
+        <v>-0.8</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="V79">
+        <v>15937</v>
+      </c>
+      <c r="W79" t="s">
+        <v>801</v>
+      </c>
+      <c r="X79" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="9"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="AC79">
+        <v>15937</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF79">
+        <v>1</v>
+      </c>
+      <c r="AG79">
+        <v>0.20571428571428599</v>
+      </c>
+      <c r="AH79">
+        <f t="shared" si="10"/>
+        <v>-0.20571428571428599</v>
+      </c>
+      <c r="AJ79">
+        <v>15937</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM79">
+        <v>-1</v>
+      </c>
+      <c r="AN79">
+        <v>-0.8</v>
+      </c>
+      <c r="AO79">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>24068</v>
+      </c>
+      <c r="B80" t="s">
+        <v>801</v>
+      </c>
+      <c r="C80" t="s">
+        <v>800</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>24068</v>
+      </c>
+      <c r="I80" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" t="s">
+        <v>800</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>24068</v>
+      </c>
+      <c r="P80" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>800</v>
+      </c>
+      <c r="R80">
+        <v>-1</v>
+      </c>
+      <c r="S80">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="8"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="V80">
+        <v>24068</v>
+      </c>
+      <c r="W80" t="s">
+        <v>801</v>
+      </c>
+      <c r="X80" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
+      <c r="Z80">
+        <v>0.34285714285714303</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="9"/>
+        <v>-0.34285714285714303</v>
+      </c>
+      <c r="AC80">
+        <v>24068</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF80">
+        <v>-1</v>
+      </c>
+      <c r="AG80">
+        <v>-0.4</v>
+      </c>
+      <c r="AH80">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="AJ80">
+        <v>24068</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM80">
+        <v>-1</v>
+      </c>
+      <c r="AN80">
+        <v>-0.45714285714285702</v>
+      </c>
+      <c r="AO80">
+        <f t="shared" si="11"/>
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>91357</v>
+      </c>
+      <c r="B81" t="s">
+        <v>801</v>
+      </c>
+      <c r="C81" t="s">
+        <v>800</v>
+      </c>
+      <c r="D81">
+        <v>-1</v>
+      </c>
+      <c r="E81">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="6"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="H81">
+        <v>91357</v>
+      </c>
+      <c r="I81" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81" t="s">
+        <v>800</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="7"/>
+        <v>-0.434285714285714</v>
+      </c>
+      <c r="O81">
+        <v>91357</v>
+      </c>
+      <c r="P81" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>800</v>
+      </c>
+      <c r="R81">
+        <v>-1</v>
+      </c>
+      <c r="S81">
+        <v>-0.17142857142857101</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="8"/>
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="V81">
+        <v>91357</v>
+      </c>
+      <c r="W81" t="s">
+        <v>801</v>
+      </c>
+      <c r="X81" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y81">
+        <v>-1</v>
+      </c>
+      <c r="Z81">
+        <v>-0.22857142857142901</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="9"/>
+        <v>0.22857142857142901</v>
+      </c>
+      <c r="AC81">
+        <v>91357</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF81">
+        <v>-1</v>
+      </c>
+      <c r="AG81">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="AH81">
+        <f t="shared" si="10"/>
+        <v>0.114285714285714</v>
+      </c>
+      <c r="AJ81">
+        <v>91357</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>801</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM81">
+        <v>-1</v>
+      </c>
+      <c r="AN81">
+        <v>-0.628571428571429</v>
+      </c>
+      <c r="AO81">
+        <f t="shared" si="11"/>
+        <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <f>COUNTIF(D2:D81, "0")</f>
+        <v>6</v>
+      </c>
+      <c r="K82">
+        <f>COUNTIF(K2:K81, "0")</f>
+        <v>13</v>
+      </c>
+      <c r="R82">
+        <f>COUNTIF(R2:R81, "0")</f>
+        <v>13</v>
+      </c>
+      <c r="Y82">
+        <f>COUNTIF(Y2:Y81, "0")</f>
+        <v>10</v>
+      </c>
+      <c r="AF82">
+        <f>COUNTIF(AF2:AF81, "0")</f>
+        <v>4</v>
+      </c>
+      <c r="AM82">
+        <f>COUNTIF(AM2:AM81, "0")</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/doc_koncowa/testy/wyniki_testow.xlsx
+++ b/doc/doc_koncowa/testy/wyniki_testow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UCB1" sheetId="1" r:id="rId1"/>
@@ -13703,19 +13703,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_01" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_02" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_04" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_06" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_03" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_05" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_02" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_01" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13743,11 +13743,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_06" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_04" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_05" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cell_03" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14013,10 +14013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M301"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M21"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152:XFD166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14024,7 +14024,7 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
@@ -21512,6 +21512,12 @@
       <c r="G301">
         <f t="shared" si="4"/>
         <v>0.628571428571429</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D302">
+        <f>COUNTIF(D2:D301, "-1")</f>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -21526,17 +21532,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M301"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A31" sqref="A17:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" customWidth="1"/>
     <col min="5" max="5" width="44.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -29030,6 +29036,12 @@
         <v>0.28571428571428598</v>
       </c>
     </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D302">
+        <f>COUNTIF(D2:D301, "-1")</f>
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="L1:M21">
     <sortState ref="L2:M21">
@@ -29042,10 +29054,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M226"/>
+  <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M17"/>
+    <sheetView topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34686,6 +34698,12 @@
       <c r="G226">
         <f t="shared" si="3"/>
         <v>-0.754285714285714</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <f>COUNTIF(D2:D226, "-1")</f>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -35182,7 +35200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q331"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B157" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4:Q14"/>
     </sheetView>
   </sheetViews>
@@ -41580,7 +41598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AO81" sqref="AO2:AO81"/>
     </sheetView>
   </sheetViews>
